--- a/src/excel/korean_literary.xlsx
+++ b/src/excel/korean_literary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>author</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -451,12 +456,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>아버지의 해방일지</t>
+          <t>홍학의 자리</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정지아</t>
+          <t>정해연</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;홍학의 자리&gt; “이 행복이 영원할 거라고 생각한 적은 없었다.
+그러나 이런 끝을 상상한 적도 없었다.”
+예측 불가! 한국 미스터리 사상 전무후무한 반전!
+10년 가까이 스릴러 장르에 매진하며 장편 단편 할 것 없이 독자들의 눈길을 사로잡는 작품을 발표한 정해연 작가의 신작이 엘릭시르에서 출간됐다.
+『홍학의 자리』는 한 남자가 사체를 호수에 유기하는 장면으로 이야기의 문을 연다. “호수가 다현의 몸을 삼켰다”라는 문장으로 시작해 “그런데, 다현은 누가 죽였을까?”라는 문장으로 끝나는 프롤로그는 이것만으로 독자의 호기심을 불러일으키기 충분하다. 정해연 작가의 장점은 누구나 궁금해할 만한 설정과 이야기 전개. 『홍학의 자리』는 그런 그의 장점이 최고조에 달한 작품이다. 프롤로그를 시작으로 총 21개의 챕터로 구성된 이 작품은 매 챕터마다 놀라운 전개를 보이며 다음 챕터를 읽지 않고서는 배기지 못할 만큼 탁월한 스토리텔링을 보여준다. 특히나 차근차근 쌓아 올려 절정의 순간 터지는 클라이맥스의 진상은 한국 미스터리에서 찾아보기 힘든 반전이 분명하다.
+하지만 『홍학의 자리』는 단순히 반전 하나만을 바라보고 치닫는 ‘반전 미스터리’가 아니다. 그 반전이 빛나는 것은 짜임새 있는 플롯과 완성도 높은 캐릭터가 모여 이야기의 재미를 한껏 끌어올렸기 때문이다. 이 작품의 반전은 충격적일 만큼 놀랍지만 반전을 빼고서도 작품의 매력은 가시지 않는다. 스릴러 작가로서 정해연 작가를 높이 평가하지 않을 수 없는 지점이 바로 여기에 있으며, 곧바로 다음 작품을 기대하게 만드는 이유도 바로 거기에 있다.</t>
         </is>
       </c>
     </row>
@@ -466,12 +482,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>불편한 편의점</t>
+          <t>아버지의 해방일지</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>김호연</t>
+          <t>정지아</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;아버지의 해방일지&gt; 새삼스럽게 경탄스럽다!
+압도적인 몰입감, 가슴 먹먹한 감동
+정지아의 손끝에서 펼쳐지는 시대의 온기
+미스터리 같은 한 남자가 헤쳐온 역사의 격랑
+그 안에서 발견하는 끝끝내 강인한 우리의 인생
+김유정문학상 심훈문학대상 이효석문학상 등을 수상하며 문학성을 두루 입증받은 ‘리얼리스트’ 정지아가 무려 32년 만에 장편소설을 발표했다. 써내는 작품마다 삶의 현존을 정확하게 묘사하며 독자와 평단의 찬사를 받아온 작가는 이번에 역사의 상흔과 가족의 사랑을 엮어낸 대작을 선보임으로써 선 굵은 서사에 목마른 독자들에게 한모금 청량음료 같은 해갈을 선사한다. 탁월한 언어적 세공으로 “한국소설의 새로운 화법을 제시”(문학평론가 정홍수)하기를 거듭해온 정지아는 한 시대를 풍미한 『빨치산의 딸』(1990) 이래로 다시 초심으로 돌아가 아버지 이야기를 다룬다. 소설은 ‘전직 빨치산’ 아버지의 죽음 이후 3일간의 시간만을 현재적 배경으로 다루지만, 장례식장에서 얽히고설킨 이야기를 따라가다보면 해방 이후 70년 현대사의 질곡이 생생하게 드러난다. 이러한 웅장한 스케일과 함께 손을 놓을 수 없는 몰입감을 동시에 안겨주는 것은 정지아만이 가능한 서사적 역량이다. 그러나 이 소설의 진정한 묘미는 어쩌면 ‘가벼움’에 있다. “아버지가 죽었다. (…) 이런 젠장”으로 시작하는 첫 챕터에서 독자들은 감을 잡겠지만 이 책은 진중한 주제의식에도 불구하고 ‘각 잡고’ 진지한 소설이 아니다. 남도의 구수한 입말로 풀어낸 일화들은 저마다 서글프지만 피식피식 웃기고, “울분이 솟다 말고 ‘긍게 사람이제’ 한마디로 가슴이 따뜻”(추천사, 김미월)해진다.</t>
         </is>
       </c>
     </row>
@@ -481,12 +508,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>홍학의 자리</t>
+          <t>불편한 편의점</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>정해연</t>
+          <t>김호연</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;불편한 편의점&gt; 불편한데 자꾸 가고 싶은 편의점이 있다! 
+힘들게 살아낸 오늘을 위로하는 편의점의 밤
+정체불명의 알바로부터 시작된 웃음과 감동의 나비효과
+『망원동 브라더스』 김호연의 ‘동네 이야기’ 시즌 2
+원 플러스 원의 기쁨, 삼각김밥 모양의 슬픔, 만 원에 네 번의 폭소가 터지는 곳!
+힘겨운 시대를 살아가는 우리들에게 다가온 조금 특별한 편의점 이야기 
+2013년 세계문학상 우수상 수상작 『망원동 브라더스』로 데뷔한 후 일상적 현실을 위트 있게 그린 경쾌한 작품과 인간의 내밀한 욕망을 기발한 상상력으로 풀어낸 스릴러 장르를 오가며 독자적인 작품 세계를 쌓아올린 작가 김호연. 그의 다섯 번째 장편소설 『불편한 편의점』이 나무옆의자에서 출간되었다. 『불편한 편의점』은 청파동 골목 모퉁이에 자리 잡은 작은 편의점을 무대로 힘겨운 시대를 살아가는 우리 이웃들의 삶의 속내와 희로애락을 따뜻하고 유머러스하게 담아낸 작품이다. 『망원동 브라더스』에서 망원동이라는 공간의 체험적 지리지를 잘 활용해 유쾌한 재미와 공감을 이끌어냈듯 이번에는 서울의 오래된 동네 청파동에 대한 공감각을 생생하게 포착해 또 하나의 흥미진진한 ‘동네 이야기’를 탄생시켰다. 
+서울역에서 노숙인 생활을 하던 독고라는 남자가 어느 날 70대 여성의 지갑을 찾아준 인연으로 그녀가 운영하는 편의점에서 야간 알바를 하면서 이야기가 시작된다. 덩치가 곰 같은 이 사내는 알코올성 치매로 과거를 기억하지 못하는 데다 말도 어눌하고 행동도 굼떠 과연 손님을 제대로 상대할 수 있을까 의구심을 갖게 하는데 웬걸, 의외로 그는 일을 꽤 잘해낼 뿐 아니라 주변 사람들을 묘하게 사로잡으면서 편의점의 밤을 지키는 든든한 일꾼이 되어간다. 
+현실감 넘치는 캐릭터와 그들 간의 상호작용을 점입가경으로 형상화하는 데 일가견이 있는 작가의 작품답게 이 소설에서도 독특한 개성과 사연을 지닌 인물들이 차례로 등장해 서로 티격태격하며 별난 관계를 형성해간다. 고등학교에서 역사를 가르치다 정년퇴임하여 매사에 교사 본능이 발동하는 편의점 사장 염 여사를 필두로 20대 취준생 알바 시현, 50대 생계형 알바 오 여사, 매일 밤 야외 테이블에서 참참참(참깨라면, 참치김밥, 참이슬) 세트로 혼술을 하며 하루의 스트레스를 푸는 회사원 경만, 마지막이라는 각오로 청파동에 글을 쓰러 들어온 30대 희곡작가 인경, 호시탐탐 편의점을 팔아치울 기회를 엿보는 염 여사의 아들 민식, 민식의 의뢰를 받아 독고의 뒤를 캐는 사설탐정 곽이 그들이다. 제각기 녹록지 않은 인생의 무게와 현실적 문제를 안고 있는 이들은 각자의 시선으로 독고를 관찰하는데, 그 과정에서 발생하는 오해와 대립, 충돌과 반전, 이해와 공감은 자주 폭소를 자아내고 어느 순간 울컥 눈시울이 붉어지게 한다. 그렇게 골목길의 작은 편의점은 불편하기 짝이 없는 곳이었다가 고단한 삶을 위로하고 웃음을 나누는 특별한 공간이 된다.</t>
         </is>
       </c>
     </row>
@@ -504,6 +545,16 @@
           <t>이혁진</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;사랑의 이해&gt; "두 사람은 어깨를 기댄 채 앉아 있었다.
+곧 휩쓸려 갈 해변의 모래 더미처럼."
+한겨레문학상 수상 작가 이혁진 연애소설
+은행을 배경으로 펼쳐지는 네 남녀의
+언쿨하고 발칙한, 속물적이고 사실적인 사내 연애의 모든 것</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -511,12 +562,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>칵테일, 러브, 좀비</t>
+          <t>구의 증명</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>조예은</t>
+          <t>최진영</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;구의 증명&gt; 만약 네가 먼저 죽는다면
+나는 너를 먹을 거야.
+그래야 너 없이도 죽지 않고 살 수 있어.
+사랑 후 남겨진 것들에 관한 숭고할 만큼 아름다운 이야기
+최진영 소설 『구의 증명』은 사랑하는 연인의 갑작스러운 죽음 이후 겪게 되는 상실과 애도의 과정을 통해 삶의 의미 혹은 죽음의 의미를 되묻는 소설이다. 이 작품에서 최진영은 퇴색하지 않는 사랑의 가치를 전면에 내세우고 아름다운 문장과 감성적이며 애절한 감수성을 통해 젊고 아름다운 남녀의 열정적인 사랑과 냉정한 죽음에 대해 세련된 감성과 탁월한 문체로 담아내고 있다.</t>
         </is>
       </c>
     </row>
@@ -526,12 +587,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>하얼빈</t>
+          <t>칵테일, 러브, 좀비</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>김훈</t>
+          <t>조예은</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;칵테일, 러브, 좀비&gt; 안전가옥 쇼-트 시리즈의 두 번째 책으로, 조예은 작가의 단편집이다. 안전가옥 오리지널 시리즈의 첫 책 &lt;뉴서울파크 젤리장수 대학살&gt;에서 탄탄한 구성의 호러 스릴러를 선보였던 작가의 연출력은 단편집에서 더욱 다양한 색채로 빛을 발한다.
+미묘하지만 분명한 폭력을 감내해 왔던 여성 빌런의 탄생을 그린 '초대', 물귀신과 숲귀신 사이의 사랑스러운 이끌림을 담은 '습지의 사랑', 블랙 유머를 통해 가부장제의 이면을 들여다보는 오컬트 좀비물 '칵테일, 러브, 좀비', 제2회 황금가지 타임리프 공모전에서 우수상을 차지한 '오버랩 나이프, 나이프' 등 네 작품을 수록하였다.</t>
         </is>
       </c>
     </row>
@@ -541,12 +609,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이토록 평범한 미래</t>
+          <t>밝은 밤</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김연수</t>
+          <t>최은영</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;밝은 밤&gt; “슬픔을 위로하고 감싸주는 더 큰 슬픔의 힘” _오정희(소설가)
+백 년의 시간을 감싸안으며 이어지는 사랑과 숨의 기록
+『쇼코의 미소』 『내게 무해한 사람』 최은영 첫 장편소설
+공감을 불러일으키는 이야기와 서정적이며 사려 깊은 문장, 그리고 그 안에 자리한 뜨거운 문제의식으로 등단 이후 줄곧 폭넓은 독자의 지지와 문학적 조명을 두루 받고 있는 작가 최은영의 첫 장편소설. ‘문화계 프로가 뽑은 차세대 주목할 작가’(동아일보) ‘2016, 2018 소설가들이 뽑은 올해의 소설’(교보문고 주관) ‘독자들이 뽑은 한국문학의 미래가 될 젊은 작가’(예스24) 등 차세대 한국소설을 이끌 작가를 논할 때면 분야를 막론하고 많은 사람들의 머릿속에 가장 선명히 떠오르며 활발한 작품활동을 이어가던 최은영 작가는 2019년, 예정돼 있던 소설 작업을 중단한 채 한차례 숨을 고르며 멈춰 선다. 의욕적으로 소설 작업에 매진하던 작가가 가져야 했던 그 공백은 “다시 쓰는 사람의 세계로 초대받”(‘작가의 말’에서)기까지 보낸 시간이자 소설 속 인물들이 찾아오기를 기다리는 시간이기도 했다.
+『밝은 밤』은 그런 작가가 2020년 봄부터 겨울까지 꼬박 일 년 동안 계간 『문학동네』에 연재한 작품을 공들여 다듬은 끝에 선보이는 첫 장편소설로, 「쇼코의 미소」 「한지와 영주」 「모래로 지은 집」 등 긴 호흡으로 이야기를 이끌어가는 중편소설에서 특히 강점을 보여온 작가의 특장이 한껏 발휘된 작품이다. 첫 소설집 『쇼코의 미소』가 출간된 2016년의 한 인터뷰에서 장편 계획을 묻는 질문에 작가는 “엄마나 할머니, 아주 옛날에 이 땅에 살았던 여성들의 이야기를 써보고 싶다는 바람이 있어요”라고 말했던바, 『밝은 밤』은 작가가 오랫동안 마음속에 품어왔던 ‘증조모-할머니-엄마-나’로 이어지는 4대의 삶을 비추며 자연스럽게 백 년의 시간을 관통한다. 증조모에게서 시작되어 ‘나’에게로 이어지는 이야기와 ‘나’에게서 출발해 증조모로 향하며 쓰이는 이야기가 서로를 넘나들며 서서히 그 간격을 메워갈 때, 우리는 사람들의 입을 통해 이야기가 전해진다는 건 서로를 살리고 살아내는 숨이 연쇄되는 과정이기도 하다는 것을, 그리고 그것이 이야기 자체가 가진 본연의 힘이기도 하다는 것을 느끼게 될 것이다. 은은하며 강인한 존재감으로 서서히 주위를 밝게 감싸는 최은영의 소설이 지금 우리에게 도착했다.</t>
         </is>
       </c>
     </row>
@@ -556,12 +634,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>구의 증명</t>
+          <t>이토록 평범한 미래</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>최진영</t>
+          <t>김연수</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;이토록 평범한 미래&gt; 김연수 9년 만의 신작 소설집
+종말 이후의 사랑에 대한 여덟 편의 이야기
+작가 김연수가 짧지 않은 침묵을 깨고 신작 소설집 『이토록 평범한 미래』를 출간한다. 『사월의 미, 칠월의 솔』(2013) 이후 9년 만에 펴내는 여섯번째 소설집이다. 그전까지 2~4년 간격으로 꾸준히 소설집을 펴내며 ‘다작 작가’로 알려져온 그에게 지난 9년은 “바뀌어야 한다는 내적인 욕구”가 강하게 작동하는 동시에 “외적으로도 바뀔 수밖에 없는 일들이 벌어진”(특별 소책자 『어텐션 북』 수록 인터뷰에서) 시간이었다. 안팎으로 변화를 추동하는 일들이 계속되는 상황에서 김연수는 소설 외의 다른 글쓰기에 몰두하며 그 시간을 신중하게 지나왔다. 변화에 대한 내적인 욕구와 외적인 요구는 작가를 어떤 자리로 옮겨오게 했을까. 『이토록 평범한 미래』는 작가가 최근 2~3년간 집중적으로 단편 작업에 매진한 끝에 선보이는 소설집으로, ‘시간’을 인식하는 김연수의 변화된 시각을 확인할 수 있게 한다. 김연수는 과거에서 미래를 향해 흐르는 것으로만 여겨지는 시간을 다르게 정의함으로써 우리가 현재의 시간을, 즉 삶을 새롭게 상상할 수 있는 가능성을 아름답고 서정적인 언어로 설득해낸다. 특별한 점은 그 가능성이 ‘이야기’의 형태로 전달된다는 것이다. 
+지구에 종말이 올 것이라는 노스트라다무스의 예언으로 떠들썩했던 1999년 여름, 동반자살을 결심한 스물한 살의 두 대학생은 뜻밖의 계기로 시간여행을 다룬 소설 『재와 먼지』를 접한 뒤 의외의 선택을 하게 되고(「이토록 평범한 미래」), 아이를 잃고 아득한 어둠 속에 갇혀 있던 한 인물은 자신을 두려움에 떨게 하는 바다 앞에서 이백 년 전에 그 바다를 지난 역사 속 인물인 ‘정난주’에 대한 이야기를 떠올린다(「난주의 바다 앞에서」). 그뿐 아니라 이번 소설집에 실린 여덟 편의 작품에서 인물들은 끊임없이 서로에게 이야기를 들려주고, 자신만의 이야기를 만들어나간다. 마치 이야기가 현재의 자신에게, 그리고 타인에게 어떤 영향을 미칠지 실험하는 신중한 관찰자처럼. 그렇게 이야기와 삶이 서로를 넘나들며 아름답게 스며드는 과정을 함께 경험함으로써 우리는 왜 어떤 삶은 이야기를 접한 뒤 새롭게 시작되는지, 그리고 이야기를 사랑하면 왜 삶에 충실해지는지 알 수 있게 된다. 이야기가 지닌 힘을 끝까지 의심에 부친 끝에 도출해낸, 소설의 표현을 빌리자면, “언젠가 세상의 모든 것은 이야기로 바뀔 것이고, 그때가 되면 서로 이해하지 못할 것은 하나도 없게 되리라고 믿는 이야기 중독자”(「바얀자그에서 그가 본 것」) 김연수의 각별한 결과물이다.</t>
         </is>
       </c>
     </row>
@@ -571,12 +658,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>밝은 밤</t>
+          <t>아주 희미한 빛으로도</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>최은영</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;아주 희미한 빛으로도&gt; 더 진실하기를, 더 치열하기를, 더 용기 있기를
+『내게 무해한 사람』 이후 5년, 
+고요하게 휘몰아치는 최은영의 세계
+소설가 권여선, 서평가 정희진 추천
+2020 젊은작가상 수상작 「아주 희미한 빛으로도」 수록
+‘함께 성장해나가는 우리 세대의 소설가’를 갖는 드문 경험을 선사하며 동료 작가와 평론가, 독자 모두에게 특별한 이름으로 자리매김한 최은영의 세번째 소설집 『아주 희미한 빛으로도』가 출간되었다. 올해로 데뷔 10년을 맞이하는 최은영은 그간 만남과 헤어짐을 거듭하는 인물의 내밀하고 미세한 감정을 투명하게 비추며 우리의 사적인 관계 맺기가 어떻게 사회적인 맥락을 얻는지를 고찰하고(『쇼코의 미소』, 2016), 지난 시절을 끈질기게 떠올리는 인물을 통해 기억을 마주하는 일이 어떻게 재생과 회복의 과정이 될 수 있는지를 살피며(『내게 무해한 사람』, 2018), 4대에 걸친 인물들의 삶의 궤적을 따라감으로써 과거에서 현재를 향해 쓰이는 종적인 연대기(年代記)가 어떻게 인물들을 수평적 관계에 위치시키며 횡적인 연대기(連帶記)로 나아가는지를 그려왔다(『밝은 밤』, 2021). 이전 작품들에 담긴 문제의식을 한층 더 깊고 날카로운 시선으로 이어나가는 이번 소설집은 작가가 처음 작품활동을 시작했을 때 품은 마음이 지금의 관점에서 어떻게 이어지는지 보여줌으로써 “깊어지는 것과 넓어지는 것이 문학에서는 서로 다른 말이 아니라는 것”(한국일보문학상 심사평)을 감동적으로 증명해낸다.
+『아주 희미한 빛으로도』에 담긴 7편의 중단편은 조곤조곤 이야기를 시작하다가도 어느 순간 이야기의 부피를 키우면서 우리를 뜨거운 열기 한가운데로 이끄는 몰입력과 호소력이 돋보인다. “너라면 어땠을 것 같아. 네가 나였다면 그 순간 어떻게 했을 것 같니”(「답신」, 170쪽)라고 묻는 최은영의 소설은 소설 바깥의 우리를 적극적으로 소설 속으로 끌어들이면서 때로는 직장생활을 하다 다시 대학에 입학한 인물이 충만한 기쁨과 예상치 못한 어려움을 느끼는 강의실로(「아주 희미한 빛으로도」), 때로는 동갑내기 인턴과 함께 카풀을 하면서 그전과는 전혀 다른 방식의 대화를 하게 되는 자동차 안으로(「일 년」), 때로는 자기 존재를 증명하기 위해 스스로를 몰아붙여온 인물의 외로운 옆자리로(「이모에게」) 우리를 데려가 그들과 함께 한 시절을 겪어내게 한다. 그리고 그들과 함께하는 시간을 통해 우리에게 “마음이, 당신과 아무런 관계도 없는 사람들의 마음에 붙을 수 있다는 것”(「몫」, 66쪽)을 일러준다. 그것이 최은영의 이번 소설집에서 강력하게 작동하는 힘이자 지금 우리에게 가장 절실한 힘인 다른 사람에 대한 상상력일 것이다.</t>
         </is>
       </c>
     </row>
@@ -594,6 +693,19 @@
           <t>천명관</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;고래&gt; 1993년 12월, 한국문학의 새로운 플랫폼이고자 문을 열었던 문학동네가 창립 20주년을 맞아 ‘문학동네 한국문학전집’을 발간, 그 첫 스무 권을 선보인다. 문학의 위기, 문학의 죽음은 언제나 현재진행형이다. 그래서 문학의 황금기는 언제나 과거에 존재한다. 시간의 주름을 펼치고 그 속에서 불멸의 성좌를 찾아내야 한다. 과거를 지금-여기로 호출하지 않고서는 현재에 대한 의미부여, 미래에 대한 상상은 불가능하다. 미래 전망은 기억을 예언으로 승화하는 일이다. 과거를 재발견, 재정의하지 않고서는 더 나은 세상을 꿈꿀 수 없다. 문학동네가 한국문학전집을 새로 엮어내는 이유가 여기에 있다. 문학동네 한국문학전집은 지난 20년간 문학동네를 통해 독자와 만나온 한국문학의 빛나는 성취를 우선적으로 선정했다. 하지만 앞으로 세대와 장르 등 범위를 확대하면서 21세기 한국문학의 정전을 완성하고, 한국문학의 특수성을 세계문학의 보편성과 접목시키는 매개 역할을 수행해나갈 것이다. 
+문학동네 한국문학전집 019 
+천명관 장편소설 고래 
+제10회 문학동네소설상 수상작인, 천명관의 『고래』(2004)는 지금까지의 소설 문법과 그 궤를 전혀 달리하는 작품으로, ‘노파-금복-춘희’로 이어지는 세 여인의 굴곡지고 파란만장한 삶을 농염한 묘사와 압도적인 서사로 그려내며 단번에 평단과 독자를 사로잡았다. 신화적 상상력, 민담, 사회 괴담, 무협지 등 소설적 토양에 뿌리를 두고 있으면서도 어느 순간 이를 훌쩍 뛰어넘는 이야기들이 꼬리에 꼬리를 물고 이어지면서 한국소설의 외연을 한층 더 확장시켰다는 평가를 받았다. 
+고래 출간 이후 십 년. 그사이 한국 소설은 더 많은 파격을, 더 화려한 문장을 시도하고 구사하는 작가들의 손끝에서 몸을 부풀렸지만, 그럼에도 『고래』가 구축한 방대한 서사와 생동하는 인물들은 해를 거듭할수록 그 밀도를 더하고 있다. 작가가 (스스로 만든) 이야기꾼의 입을 빌려 쏟아놓은 무궁무진한 변주가 이 소설의 무너지지 않는 뼈대이자 살이기 때문이다. 금복을 떠올리면 춘희가 딸려오고, 춘희를 떠올리면 노파가 따라나오는 마술. 후에 『고래』를 이야기하는 사람들은 어쩌면 조금씩 다른 버전으로 소설을 기억할지도 모른다. 신화, 영화, 드라마, 연극 등 능수능란하게 장르를 오가며 이야기 꽁무니에 이야기를 달아둔 천생 소설가 천명관의 스텝은 소설 속 스토리의 변주인 동시에 작은 세계의 확장의 과정이기도 할 터이다. 
+『고래』는 단순히 색다른 모양새의 이야기들을 집약해놓은 소설이 아니라 우리 삶의 문을 쑥 밀고 들어오는 커다란 머리다. 독자는 그 우거진 머리를 헤치고 맛보고 다듬으며 저마다 찾고 싶은 군상을 발견하고 공감한다. 
+작가가 의도한 것이건 아니건 간에 『고래』는 소설이 갈 수 있는 최대의 영역으로 발을 들여놓은 것만은 틀림없다. 과연 소설의 확장이 어디까지인가 확정짓는 것은 가능하지도 않을 뿐만 아니라 그럴 필요가 없는 일이기도 하다. 소설이 할 수 있는 바는 그 경계 바깥으로 끊임없이 월경하는 것뿐일 것이다. 『고래』는 남미소설이 그러했던 것처럼 어느 순간 소설의 영역을 훌쩍 뛰어넘어 또다른 공간으로 들어갔다. _신수정(문학평론가, 명지대 문예창작과 교수) 
+춘희의 고독은 그녀의 생애 전체가 그랬던 것처럼 누구에게도 제대로 전달되거나 결코 이해될 리 없는 성질의 것이다. 그러므로 아무리 세인들이 제멋대로 추측하여 떠들어댄다 해도 특별한 이야기나 교훈을 남길 리 없는 사적인 세계에 국한되어 있다. 그럼에도 불구하고 그녀가 일생 동안 구운 벽돌의 양만큼이나 또는 숨을 거둔 후 그녀의 영혼이 우주 저편으로 향하고 있는 것처럼, 어쩐지 시공을 초월한 거대한 스케일을 연상시키는 측면이 있다. (…) 『고래』 전체를 통틀어 춘희 이상으로 내부의 세계를 풍성하게 구축한 개인은 사실상 존재하지 않는다. 낭만주의적 전통에서 연원한, 이와 같이 철저히 내부의 세계에만 구애되고 있는 자기 정향적 개인의 형상을 또한 어찌 소설의 주인공이 아니라고 단언할 수 있겠는가. _조형래(문학평론가)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -601,12 +713,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>아주 희미한 빛으로도</t>
+          <t>하얼빈</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>최은영</t>
+          <t>김훈</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;하얼빈&gt; 『칼의 노래』를 넘어서는 깊이와 감동
+김훈이 반드시 써내야만 했던 일생의 과업
+  ‘우리 시대 최고의 문장가’ ‘작가들의 작가’로 일컬어지는 소설가 김훈의 신작 장편소설 『하얼빈』이 출간되었다. 『하얼빈』은 김훈이 작가로 활동하는 내내 인생 과업으로 삼아왔던 특별한 작품이다. 작가는 청년 시절부터 안중근의 짧고 강렬했던 생애를 소설로 쓰려는 구상을 품고 있었고, 안중근의 움직임이 뿜어내는 에너지를 글로 감당하기 위해 오랜 시간을 들여 ‘인간 안중근’을 깊이 이해해나갔다. 그리고 2022년 여름, 치열하고 절박한 집필 끝에 드디어 그 결과물을 세상에 내놓게 되었다.
+  『하얼빈』에서는 단순하게 요약되기 쉬운 실존 인물의 삶을 역사적 기록보다도 철저한 상상으로 탄탄하게 재구성하는 김훈의 글쓰기 방식이 빛을 발한다. 이러한 서사는 자연스럽게 김훈의 대표작 『칼의 노래』를 떠올리게 하는데, 『칼의 노래』가 명장으로서 이룩한 업적에 가려졌던 이순신의 요동하는 내면을 묘사했다면 『하얼빈』은 안중근에게 드리워져 있던 영웅의 그늘을 걷어내고 그의 가장 뜨겁고 혼란스러웠을 시간을 현재에 되살려놓는다.
+  난세를 헤쳐가야 하는 운명을 마주한 미약한 인간의 내면에 집중하는 김훈의 시선은 『하얼빈』에서 더욱 깊이 있고 오묘한 장면들을 직조해낸다. 소설 안에서 이토 히로부미로 상징되는 제국주의의 물결과 안중근으로 상징되는 청년기의 순수한 열정이 부딪치고, 살인이라는 중죄에 임하는 한 인간의 대의와 윤리가 부딪치며, 안중근이 천주교인으로서 지닌 신앙심과 속세의 인간으로서 지닌 증오심이 부딪친다. 이토록 다양한 층위에서 벌어지는 복합적인 갈등을 날렵하게 다뤄내며 안중근이라는 인물을 바라보는 시야의 차원을 높이는 이 작품은 김훈의 새로운 대표작으로 소개되기에 모자람이 없다.</t>
         </is>
       </c>
     </row>
@@ -624,6 +746,16 @@
           <t>이상</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;이상 소설 전집&gt; 한국 소설의 현대성을 창조한 불우한 천재
+ 식민지 한국의 위기를 살아 낸 사람들의 불안한 내면 심리와 뿌리 뽑힌 도시인, 소외된 지식인의 불안, 공포, 절망에 대한 치열한 탐구
+ 천재', '광인', 혹은 '모던 보이'라고 불리우는 이상은실험적 구성과 파격적 문체를 통해 식민지 근대 한국과 그 시기를 살아 낸 사람들의 혼란스럽고 불안한 내면 심리를 형상화한 훌륭한 소설가이기도 하다. 이상은 사회 존재 기반, 삶의 배경 없이 추상적으로만 존재하는 소설 속 등장인물들을 통해, 뿌리 뽑힌 도시인과 소외된 지식인의 억압된 충동, 그리고 감추어진 욕구를 폭로하며 그들의 무의식을 처절하게 드러내고자 했다.
+ 실험성과 전위성으로 인해 오늘날에도 다양한 비평 담론과 논쟁을 야기하는 이상의 소설은 그 문학적 존재 자체만으로도 여전히 현실에 대한 엄청난 충격이자 도전이라고 할 수 있을 것이다. 
+ ▶ 수록 작품: 「지도의 암실」, 「휴업과 사정」, 「지팡이 역사」, 「지주회시」, 「날개」, 「봉별기」, 「동해」, 「종생기」, 「환시기」, 「실화」, 「단발」, 「김유정」,「십이월 십이 일」</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -631,12 +763,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>탄금 - 금을 삼키다</t>
+          <t>개정판 | 작은 땅의 야수들</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>장다혜</t>
+          <t>김주혜</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;개정판 | 작은 땅의 야수들&gt; 잊어선 안 될 우리 역사를 전 세계에 알린 소설!
+『작은 땅의 야수들』 리커버 특별판 출간
+1주년을 맞아 새로운 표지 디자인과 양장 제본으로 재탄생
+기백 넘치는 호랑이에 한국인의 혼을 담은 ‘호랑이 에디션’
+[더 타임스] [뉴욕타임스] 등 영미권 40여 개 주요 매체 극찬
+전 세계 13개국 번역 출간 · 글로벌 OTT 영상화 예정
+2022년 국내 출간 즉시 전 서점 베스트셀러를 석권하며 한국 독자들에게 강렬한 인상을 남긴 한국계 미국인 김주혜 작가의 기념비적인 데뷔작 『작은 땅의 야수들』이 리커버 특별판으로 새롭게 출간되었다.
+호랑이와 인간이 대치하는 강렬한 프롤로그로 시작하는 『작은 땅의 야수들』은 혼란스러운 시대에 서로 다른 욕망을 품은 다양한 인간 군상들이 운명적으로 얽혀 흥망성쇠하는 장대한 대서사시다. 1917년 일제강점기 조선, 한겨울의 눈 덮인 깊은 산속에서 극한의 추위 속에 굶주림과 싸우며 짐승을 쫓던 사냥꾼이 호랑이에게 공격받고 있던 일본군 대위를 구한다. 이 사건으로 그들의 삶은 운명처럼 연결되고, 이 만남으로부터 반세기에 걸친 이야기가 펼쳐진다.
+영미권 40여 개 매체에서 극찬을 받고, 13개국에 판권이 팔려 나간 이 작품은 2022년 9월, 세계 평화에 기여하는 문학 작품에 수여하는 ‘데이턴문학평화상’ 최종 후보에 올랐다. 한국어판이 출간된 직후에는 영상화 판권이 팔려 OTT 콘텐츠로도 제작될 예정이다. 한국어판은 국내에서 출간 즉시 베스트셀러에 올랐다. 특히 국내 독자들은 번역 소설이라고는 믿지 못할 만큼 한국의 고유한 정서를 제대로 표현했다고 평하며 다른 언어로는 적확하게 표현할 수 없는 모국어 판본만의 아름다움에 감탄했다.
+“호랑이만큼은 정말이지 놓치고 싶지 않아. 일본에는 그처럼 사나운 맹수가 없거든. 영토로 따지면 우리가 훨씬 더 큰 나라인데도 말이야. 이 작은 땅에서 어떻게 그리도 거대한 야수들이 번성할 수 있었는지 신비로울 따름이야.” _본문에서</t>
         </is>
       </c>
     </row>
@@ -646,12 +793,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>보건교사 안은영</t>
+          <t>1차원이 되고 싶어</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>정세랑</t>
+          <t>박상영</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;1차원이 되고 싶어&gt; 젊은작가상 대상, 신동엽문학상 수상 작가 박상영 첫 장편소설
+2019년 「우럭 한 점 우주의 맛」으로 “대범하고 진실하기 때문에 힘이 있”(소설가 김성중)다는 평을 받으며 젊은작가상 대상을, 2021년 『대도시의 사랑법』으로 “낡은 관계와 관념을 무너뜨리는 혁신적 면모를 보여줬다”(신동엽문학상 심사위원회)는 평을 받으며 신동엽문학상을 수상한 박상영 작가의 첫 장편소설 『1차원이 되고 싶어』가 출간되었다. 2020년 상반기에 웹진 [주간 문학동네]에서 전반부를 연재할 때부터 큰 관심과 인기를 모은 『1차원이 되고 싶어』는 이후 작가가 각고의 노력을 기울여 200자 원고지 1,300매가 넘는 묵직한 분량으로 완성되었다.
+『1차원이 되고 싶어』는 한국의 지방 도시 D시를 배경으로 십대 퀴어 ‘나’의 이야기를 그린다. 또래 친구 ‘윤도’와의 가슴 저릿한 사랑, 자유분방한 ‘무늬’와 나누는 동경 어린 우정이 ‘나’의 목소리를 통해 생생하게 전해지고, 부동산 가격과 학군으로 구획된 당대 아파트 단지의 생활상, 숨막히는 대입 경쟁과 비뚤어진 폭력으로 가득한 학교생활, 그 시대를 함께한 주위 사람들의 다채로운 면면이 살아 숨쉰다. 그간 청춘 세대의 사랑과 이별을 활기 있게 그려온 작가는 첫 장편을 통해 ‘십대 시절’이라는 생애의 한 시작점으로 시선을 돌려, 지금 여기에 우리를 있게 한 근원적인 세계를 보여준다. 내면 깊은 곳에 묻혀 있던 그 시절의 어두운 기억까지 남김없이 길어올려 환희와 고통의 순간을 동시에 체험하게 하는 이 색다른 성장소설은 그야말로 박상영 작가의 새로운 ‘첫’이자 오래도록 읽히며 회자될 이야기가 될 것이다.</t>
         </is>
       </c>
     </row>
@@ -661,12 +816,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>재수사 1</t>
+          <t>무진기행</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>장강명</t>
+          <t>김승옥</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;무진기행&gt; 한국 문학의 새로운 가능성을 열어 준 첫 한글세대 소설가 김승옥근대인의 일상과 탈일상을 감각적으로 표현해 내면서1960년대 문학에 ‘감수성의 혁명’을 일으킨 그의 대표 단편 10편
+김승옥 소설집 『무진기행』이 민음사 세계문학전집 149번으로 출간되었다. 그동안 민음사의 세계문학전집은 새로운 번역으로 엄선된 문학 작품들을 선보인 한편 타 출판사의 세계문학전집과는 달리, 우리와 동시대를 살고 있는 작가들의 작품뿐 아니라 특히 한국 문학 작품의 수록에도 힘써 왔다. 1998년 오비디우스의 『변신 이야기』를 1번으로 시작하여 이제 150번 돌파를 눈앞에 두고 있는 세계문학전집에 『구운몽』(김만중), 『춘향전』, 『황제를 위하여』(이문열), 『돼지꿈』(황석영)에 이어 다섯 번째 한국 문학으로 선정된 작품은 1960년대 ‘감수성의 혁명’을 일으키며 한국 문학의 새로운 가능성을 열어 준 소설가 김승옥의 소설집 『무진기행』이다.이번 소설집에는 ‘서울’과 ‘무진’이라는 공간 사이에서 그리고 현실과 이상 사이에서 갈등하는 주인공의 내면을 섬세하게 표현해 냄으로써 한국 문학사상 최고의 단편소설로 평가 받고 있는 「무진기행」을 비롯해 김승옥의 등단작인 「생명연습」, 동인문학상 수상작 「서울 1964년 겨울」 그리고 이상문학상 수상작 「서울의 달빛 0장」까지, 비록 짧은 기간이었지만 단숨에 김승옥을 한국 문단의 ‘살아 있는 신화’로 만든 주요 소설들을 한자리에 모았다.
+※ 수록 작품:무진기행, 서울 1964년 겨울, 생명연습, 건, 역사, 차나 한 잔, 다산성, 염소는 힘이 세다,야행, 서울의 달빛 0장</t>
         </is>
       </c>
     </row>
@@ -676,12 +839,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>개정판 | 작은 땅의 야수들</t>
+          <t>보건교사 안은영</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>김주혜</t>
+          <t>정세랑</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;보건교사 안은영&gt; 직업은 보건교사, 인생은 퇴마사 
+귀염, 발랄, 용감…… 온갖 매력이 다 터지는 캐릭터, 안은영이 왔다! 
+본격 학원 명랑 미스터리 소설의 탄생
+『지구에서 한아뿐』, 『덧니가 보고 싶어』, 『이만큼 가까이』, 『재인, 재욱, 재훈』등의 소설을 출간하며 참신한 상상력과 따뜻한 이야기로 독자의 사랑을 받아 온 소설가 정세랑의 새 장편소설 『보건교사 안은영』이 《오늘의 젊은 작가》 시리즈의 아홉 번째 책으로 출간되었다. 소설은 제목 그대로 사립 M고의 보건교사 ‘안은영’을 주인공으로 한다. 특별한 것 없는 직업과 평범한 이름이지만 안은영은 보통의 보건교사가 아니다. 복 중의 복, 일복 하나는 타고난 그녀는 직업으로 ‘보건교사’ 역할에 열심히면서 동시에 자신만이 볼 수 있는 것들을 처치하고 쫓아내며, 또는 위로하는 ‘퇴마사’의 운명에도 충실히 복무한다. 여기에 사립 M고의 한문교사이자 학교 설립자의 후손인 홍인표에게 흐르는 거대한 에너지는 안은영의 활약을 돕는 필수적인 영양제 역할을 한다. 에너지(기)를 보충하기 위해, 학교의 평화를 지키기 위해 둘은 내 거 아닌 내 것 같은 사이가 되어 힘을 합한다. 둘 앞에 나타나는 기이한 괴물들, 학생들에게 보이는 미스터리한 현상들, 학교 곳곳에 숨은 괴상한 힘들…… 사립 M고에는 어떤 비밀이 있는 것일까. 무엇보다 안은영과 홍인표의 썸(some)은 어떻게 마무리될까? 
+발랄 용감 다정 캐릭터 안은영의 탄생
+안은영은 남들이 볼 수 없는 것을 어릴 때부터 보아 온 ‘퇴마사’이자 ‘심령술사’이다. 필히 어둡고 서늘한 면모를 보일 것 같은 캐릭터이지만, 안은영은 퇴마사로서의 전형성 이전에 한 인간으로서의 고유한 성격과, 교사로서의 직업의식을 먼저 갖고 있는 여성이다. 발랄함과 굳건함, 코믹함과 용감함을 모두 지닌, 지금까지의 한국 소설에서 쉽게 찾을 수 없었던 강력한 여성 캐릭터이다. 그녀는 플라스틱 칼과 비비탄 총으로 악귀와 혼령을 물리치며, 통굽 슬리퍼를 신고 뛰어다닌다. 급할 때는 맨발로 스타킹이 찢어지도록 뛰기도 한다. 학생들의 갖가지 고민을 스스럼없이 들어주며, 엇나갈 것 같은 학생들은 자신만의 방법으로 지도한다. 사람을 해치는 괴물과 자신의 힘을 악용하는 자는 가차 없이 응징하지만 사연이 있는 영혼을 조용히 쓰다듬어 주는 방법도 안다. 안은영은 발랄하고 용감한 여전사이자 동시에 다정하고 유쾌한 언니가 되어 맹활약한다. 수동적이지 않고 주체적이며, 감상적이지 않고 감각적인, 아는 형 삼고 싶은 안은영. 그녀의 치명적 매력이 이 소설을 이끄는 주된 엑토플라즘이다.</t>
         </is>
       </c>
     </row>
@@ -691,12 +865,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한국이 싫어서</t>
+          <t>유령의 마음으로</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>장강명</t>
+          <t>임선우</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;유령의 마음으로&gt; 어느 날, 나와 꼭 닮았지만
+나보다 정확한 마음을 가진
+유령이 나타난다면</t>
         </is>
       </c>
     </row>
@@ -706,12 +888,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>작별하지 않는다</t>
+          <t>재와 물거품</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>한강</t>
+          <t>김청귤</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;재와 물거품&gt; 안전가옥 쇼-트 시리즈의 여덟 번째 작품, 김청귤 작가의 경장편 《재와 물거품》은 안전가옥에서 주최한 2019년 여름 원천 스토리 공모전의 수상작이다. 약 1년 6개월 동안 치열한 개작을 거친 이야기는 동화 《인어 공주》 모티프와 퀴어 로맨스의 결합을 통해 우리 사회의 여성들이 바로 지금 겪고 있는 문제들을 짚어 냄으로써 다양한 재미와 의미를 담은 작품으로 완성되었다. 
+평생토록 오직 섬마을을 위해 봉사하라는 요구를 받아 왔던 무녀 마리와 섬사람들을 보살피는 존재인 인어 수아는 사랑에 빠질 때마다 각각 재와 물거품이 되어 사라질 위기에 처한다. 두 주인공이 서로의 곁에 조금이라도 더 오래 머무르기 위해 노력하는 과정을 통해 행복의 원천이자 불행의 근원이며, 파멸의 원인이자 변화의 동인이 되는 사랑의 다양한 얼굴을 엿볼 수 있다.</t>
         </is>
       </c>
     </row>
@@ -721,12 +910,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>유령의 마음으로</t>
+          <t>추리소설 속 피해자가 되어버렸다 세트(전 2권)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>임선우</t>
+          <t>고수고수</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;추리소설 속 피해자가 되어버렸다 세트(전 2권)&gt; “나는 추리소설을 좋아하는 평범한 독자 중 한 명이었을 뿐이다.”
+소설 속 하녀로 빙의해서 살인 사건을 해결해야 하는데 10분 뒤 살해당할 운명에 처했다?!
+동요 가사 연쇄살인을 추적하는 ‘정통미스터리’와
+‘책빙의’라는 웹소설 장르의 특별한 만남!
+책빙의라는 웹소설의 대표적인 설정을 차용한 참신한 콘셉트의 미스터리 장편소설 『추리소설 속 피해자가 되어버렸다』가 황금가지에서 출간되었다. 『추리소설 속 피해자가 되어버렸다』는 제목에서 암시되듯 판타지적 설정이 가미된 전형적인 책빙의물의 외피를 입었지만, 동요 노랫말에 맞춰 발생하는 연쇄살인을 해결해 나가는 본격 추리물이다.
+추리소설의 거장 애거서 크리스티의 전 세계적인 베스트셀러 『그리고 아무도 없었다』를 비롯해 『하나, 둘, 내 구두에 버클을 달아라』, 단편 「쥐덫」, 요코미조 세이시의 『악마의 공놀이 노래』, 미쓰다 신조의 『산마처럼 비웃는 것』, 히가시노 게이고의 『하쿠바산장 살인 사건』 등 동요를 핵심 트릭으로 활용한 저명한 추리소설들은 이미 다양하게 접할 수 있다. 『추리소설 속 피해자가 되어버렸다』는 이처럼 추리소설 장르 내에서 정통한 설정과 소재를 활용하면서도, 판타지 장르의 작품에서 주요하게 사용되어 온 ‘빙의’라는 웹소설의 하위장르를 결합해 신선한 장르 교합을 시도한다. 김시인 문학평론가는 도서 말미에 수록한 서평을 통해 ‘새로운 독자층을 유입할 수 있는 신선한 콘텐츠를 찾는 웹소설 측에게도, 정보량이 폭발적으로 늘어난 현대사회에서 관찰과 추론만으로 힘겨운 싸움을 해야 했던 정통미스터리 측에게도 큰 기회와 영감을 제공’할 것이라며 이 작품이 시도한 두 장르의 조합법이 흥미롭고 유의미하다고 평가한다.
+이러한 장르적 신선함뿐만 아니라, 『추리소설 속 피해자가 되어버렸다』는 모든 게 뒤죽박죽으로 바뀌어버린 상황에서 새로운 진범을 잡고 사건을 해결해 나가는 주인공이 조연급 하녀에서 본격 탐정으로 거듭나게 되는 수사물이자 성장소설이기도 하다. 동요 가사, 밀실 공간, 익명의 편지 등 다양한 트릭으로 펼쳐지는 사건의 내막을 추리하며 반전에 반전을 거듭하는 수사 과정의 재미는 물론, 결말에 이르러서는 주인공의 짜릿한 성장 서사까지 폭넓게 만나 볼 수 있다.
+“완전히 재구성된 『추리소설 속 피해자가 되어버렸다』의 결말은 ‘기이한 사건, 탐정에 의한 논리적 추리, 뜻밖의 결말’이라는 미스터리의 3대 구성의 마지막 조건까지 충족시키며, 웹소설과 정통미스터리 장르의 조합에서만 맛볼 수 있는 신선함을 독자들에게 선사한다.” ―김시인 문학평론가
+■ 줄거리 
+그럭저럭 인기몰이를 하며 웹에서 연재 중이던 추리소설 『밀른 가문의 참극』을 밤늦게까지 다 읽고 잠이 들었던 나는 깨어나 보니 그 소설 속으로 들어와 있었다. 새로운 설정이 조금 추가된 사건을 해결하면 원래의 세계로 돌아갈 수 있다는 모종의 거래에 응한 나는, 원작 스토리를 전부 알고 있었기 때문에 가뿐하게 범인을 잡을 수 있을 거라 자신한다. 그렇게 덥석 나선 것까지는 좋았는데 사건의 전말이 엉망진창으로 온통 바뀌어버린 데다, 심지어 빙의한 인물이 하필 원래 소설에서 두 번째로 살해당하는 하녀 레나 브라운이었다는 사실을 알게 된다. 이대로는 뒤죽박죽된 살인 사건을 해결할 자신이 없던 찰나, 수려한 외모와 아우라를 풍기는 ‘주인공 버프’를 받으며 명탐정 윌 헌트가 나타난다. 그에 대한 소설 속 설정을 몇 가지 읊어 주자 윌 헌트는 깜짝 놀라며 나에게 탐정의 자질이 있다는 평가를 내리고, 조수로서 밀른 가문의 살인 사건을 함께 해결하자는 제안을 해 온다. 과연 나는 10분 뒤에 살해당할 처지에 놓인 하녀의 신분으로 새로운 사건을 해결하고 원래의 세계로 다시 돌아갈 수 있을까?</t>
         </is>
       </c>
     </row>
@@ -736,12 +940,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>낫 서울 낫 소울</t>
+          <t>더블</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>전혜진</t>
+          <t>정해연</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;더블&gt; 드라마 시리즈 제작!
+중국과 대만에서 번역 출간! 
+지금 대한민국에서 가장 주목받는 K-스릴러 대표작가
+K-스릴러 대표작가 정해연의 데뷔작이자, 중국과 대만 등에서 번역 출간된 《더블: 두 구의 시체, 두 명의 살인자》가 서슬 퍼런 광기의 현장 속으로 독자들을 안내한다. 이 소설은 드라마 시리즈로도 제작이 확정된 2023년 상반기 최대 기대작이다.
+사이코패스VS사이코패스의 대결이라는 과감한 설정으로 장르소설 독자들의 기대를 한 몸에 받았던 이 소설은, 정해연 작가 특유의 섬세한 심리 묘사와 엄청난 흡인력으로 마치 작중 인물들과 같은 공간에 있다는 착각이 들 정도로 극강의 몰입감을 선사한다.</t>
         </is>
       </c>
     </row>
@@ -751,12 +965,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>언러키 스타트업</t>
+          <t>방금 떠나온 세계</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>정지음</t>
+          <t>김초엽</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;방금 떠나온 세계&gt; “사랑하지만 끝내 이해할 수 없는 것이 당신에게도 있지 않나요.”
+《우리가 빛의 속도로 갈 수 없다면》 김초엽 두 번째 소설집
+-
+제11회 젊은작가상 수상작 〈인지 공간〉, 
+2021 올해의 문제소설 〈오래된 협약〉 등 소설 7편 수록
+					“이곳을 사랑하게 만드는 것들이 이곳을 덜 미워하게 하지는 않아. 그건 그냥 동시에 존재하는 거야. 다른 모든 것처럼.” _본문 중에서
+지금까지의 김초엽이 SF를 말할 때 가장 먼저 소개되는 작가였다면, 지금의 김초엽은 한국 문학을 말할 때 가장 먼저 소환되어야 하는 작가가 되었다. “김초엽의 소설을 읽다 보면, 이 세계가 1인치쯤 더 확장되는 느낌을 받게 된다”는 강지희 평론가의 말처럼(제11회 젊은작가상 심사평 중) 김초엽의 소설은 여느 SF가 그렇듯이 지금 여기가 아닌 다른 시공간에서의 이야기를 다루면서도, 다른 진실과, 다른 감정, 처음 마주하게 되는 아득한 경이의 순간으로 우리를 이끈다. 
+《방금 떠나온 세계》는 〈관내분실〉과 〈우리가 빛의 속도로 갈 수 없다면〉으로 제2회 한국과학문학상 중단편 대상과 가작을 동시 수상하며 한국 문학의 미래로 떠오른 김초엽 작가의 소설이다. 20만 부가 판매되었던 첫 소설집 《우리가 빛의 속도로 갈 수 없다면》 이후 2년여 만에 나오는 두 번째 소설집이기도 하다. 제11회 젊은작가상 수상작인 〈인지 공간〉과 2021 올해의 문제소설로 선정된 〈오래된 협약〉을 포함해 ‘나’와 ‘세계’를 사랑하고 이해하려는 마음으로 쓴 경이롭고 아름다운 7편의 소설을 담았다. 이번 소설집에서 작가는 섬세한 문장과 꿋꿋한 서사, 그리고 타자에 대한 깊은 사유에 더해 세심한 관찰자로서 낯선 우주 저편의 이야기를 김초엽만의 세계 안에 온전히 담아낸다. 첫 소설집에서는 간접적으로만 그려졌던 사회문제 또한 한 발짝 더 가까이 끌어온다. 김초엽이 그리는 인물들은 하나같이 사랑과 이해를 바탕으로 살아가지만, 사랑하고 이해하기 때문에 참고 멈추는 것이 아니라, 현실에 안주하는 대신 어떤 사회적인 전복을 꿈꾼다. 진짜 내가 되기 위해 동생에게서 도망치고(〈캐빈 방정식〉), 진짜 내가 되기 위해 연인에게 통보하며(〈로라〉), 진짜 내가 되기 위해 정상인들에게 테러를 일으킨다(〈마리의 춤〉). 소외되고 배제된 존재로서의 장애에 대한 은유 또한 소설 속 인물들을 통해 드러난다. 〈최후의 라이오니〉의 ‘나’는 결함이 있는 복제 인간이며, 〈마리의 춤〉의 ‘마리’는 태어날 때부터 시지각 이상증을 겪어야 하는 ‘모그’다. 〈로라〉의 ‘로라’는 정신과 몸의 불일치에서 벗어나기 위해 세 번째 팔을 이식받고 트랜스휴먼이 되길 선택하며, 〈캐빈 방정식〉의 ‘언니’는 불의의 사고로 인해 다른 이들과는 다른 아주 느린 시간대를 살아가게 된다. 〈오래된 협약〉의 ‘노아’는 겨우 서른 살밖에 살지 못한 채 일종의 정신병을 앓다 죽게 될 운명이며, 〈인지 공간〉의 ‘이브’는 작고 연약해서 ‘인지 공간’에 들어가지 못한다. 〈숨그림자〉의 ‘단희’는 발성기관이 퇴화되어버린 존재다. 하지만, 그들을 주인공으로 하여 김초엽이 그리는 세계는 결코 차갑지 않다. 《방금 떠나온 세계》의 소외되고 배제된 인물들은 사회의 모순에 맞서며, 사회에 대한 의문을 그치지 않은 채로 지금의 세계를 떠나 더 위대한 세계로 나아간다. 사랑과 이해와 위로가 아닌, 사랑의 힘과 이해의 힘과, 위로의 힘을 보여준다. 방금 떠나온 세계를 잊지 않은 채로, 무한한 세계로의 여행을 떠난다. 유튜브 ‘겨울서점’의 김겨울 작가는 《방금 떠나온 세계》의 추천사에서 “살면서 종종 이 소설집의 어떤 장면들을 떠올리게 될 것 같다”고 말한다. “그가 이 시대에 글을 쓰고 있다는 것이 기쁘다”라고도.</t>
         </is>
       </c>
     </row>
@@ -766,12 +993,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>더블</t>
+          <t>2023 김승옥문학상 수상작품집</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>정해연</t>
+          <t>권여선</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;2023 김승옥문학상 수상작품집&gt; 더 깊게, 더 진실되게, 더 간절히
+인간의 마음으로 한 걸음 더 내딛는 일곱 편의 이야기
+등단 후 10년이 넘은 작가들이 한 해 동안 발표한 단편소설 가운데 가장 뛰어난 작품들을 뽑고 그중 대상작 1편과 우수상 6편을 선정해 선보이는 김승옥문학상은 가을이 되면 수상작품집을 기다리게 하는 전령으로 자리매김하고 있다. 올해는 2022년 7월부터 2023년 6월까지 주요 문예지와 웹진, 독립문예지를 포함한 총 28개 문예지의 191편이 심사 대상이 되었다. 2023 김승옥문학상의 수상 작가는 권여선, 최진영, 서유미, 최은미, 구병모, 손보미, 백수린이다. 한국문학의 단단한 중심으로서 독자에게 너른 사랑을 받아온 이들 중 권여선 작가의 단편 「사슴벌레식 문답」이 “거의 아무런 토론이 이뤄지지 않”(권희철)을 정도로 압도적인 올해의 단편이 되었다. 최은미, 구병모, 백수린 작가는 두번째로 김승옥문학상 우수상을 수상하면서 독자들에게 확실한 각인을 남겨놓고 있고, 김승옥문학상에 새로 이름을 올린 최진영, 서유미, 손보미 작가는 관록과 신선함을 동시에 거머쥐는 쾌거를 이뤄낸다.
+★
+대상 수상작인 권여선의 「사슴벌레식 문답」은 지방에서 올라와 같은 하숙집에 살면서 의기투합하게 된 네 친구의 이야기를 다룬다. 큰언니 같은 시원시원한 성격으로 모임의 리더 격이었던 부영, 상냥하고 조심성이 많은 정원, 인내심이 강하고 예의가 발랐던 경애, 그리고 술을 좋아하며 즉흥적이었던 화자 준희까지. 서로 달랐기 때문에 알맞게 짜일 수 있었고, 서로와 같은 조각을 다시는 만날 수 없다는 것을 알았기 때문에 서로에게 필사적이었던 이들은 그러나 정원의 갑작스러운 자살과 경애의 배신으로 어긋나게 된다. 등을 돌린 친구들을 향해 ‘어떻게 이럴 수 있느냐’며 곰곰이 생각하던 준희의 시선은 오래전 떠난 강촌 여행으로 향한다. 어떻게 방안에 들어왔는지 알 수 없는 사슴벌레에 대한 질문에 숙소 주인이 말한 “어디로든 들어와”가 그 해답이다. 이 ‘사슴벌레식 문답’은 인생의 매 분기점에서 솟아나 어떤 결정도 긍정함으로써, 어떤 운명도 부인할 수 없게 만든다. 그러나 나약한 인간을 압도하는 운명 앞에서 시간을 거슬러올라 끝끝내 기원을 발굴해내는 시시포스의 자유의지는 오리무중인 인생에 동반하는 나침반이 되어준다. 같은 삶의 결을 지닌 이로 하여금 응어리를 온전히 쏟아내는 울음을 울게 하면서.
+★
+『2023 김승옥문학상 수상작품집』에는 시대와 사람에 대한 당부가 가득하다. 열여섯 살 이봄, 아홉살 이여름의 시선으로 기후 위기를 목전에 둔 세계를 바라보는 「썸머의 마술과학」(최진영)은 미래를 위한 노력을 위선이라고 야유하는 시선에 정면으로 맞선다. 무기력과 자조에 젖어들기보다 불가능을 이겨내는 ‘마술과학’과도 같이 지구와 미래 세대를 위한 실천을 연습하는 사랑스러운 소설이다.
+「토요일 아침의 로건」(서유미)은 미국 지사 발령을 위해 영어 회화를 배우던 한 중년 남성에게 갑자기 찾아온 뇌졸중 소식으로 시작된다. 4년간 매주 토요일을 함께했던 선생님에게 마지막을 고하기 위한 4주간의 고요한 노력은 인연에 대한 잊기 쉬운 소중함을 특유의 단정하고 정직한 서사를 통해 차분히 역설한다.
+낯선 사람에게 좀처럼 애정과 믿음을 갖기 어려운 시대에 「그곳」(최은미)이 도착했다. 여름철 폭염 대피소로 지정된 체육관 안에 사람들이 있다. 갑작스러운 곰의 출현으로 발이 묶인데다가 엎친 데 덥친 격으로 정전이 찾아와 사람들은 공황에 빠진다. 그때, 민폐를 끼치는 사람들을 저지해오던 ‘이 구역의 최다 민원인’의 눈에 사람들의 도움이 번져가는 것이 보인다.
+「그곳」이 막다른 곳에서 발생하는 인류애를 다루고 있다면 「있을 법한 모든 것」(구병모)은 막다른 난점을 우직하게 뚫어내는 소설이다. 소설가인 화자는 얼굴을 모르는 호텔 하우스키퍼에게 호감을 느낀 남성이 그녀를 만나기 위한 여정에 나서는 로맨스를 쓰기로 한다. 그 과정에서 밝혀지는 것은 저임금 비숙련 여성 노동자를 향한 젠더화된 관성, 그리고 그 기만과 통념을 강화할 뿐인 로맨스라는 장르의 맹점이다. 그러나 소설은 그럼에도 끊기지 않는 진정성이 있다면 그에 화답하는 결말을 보여줄 용의를 속에 품고 있다.
+「끝없는 밤」(손보미) 또한 사람의 내면을 찬찬히 뜯어보는 데에 “다층적인 암시와 풍부한 상징, 다의적 해석이 가능한 장면과 이미지”(편혜영)로 손을 보탠다. 하룻밤 요트 여행을 떠난 부부가 있다. 여자는 그들을 여행에 초대한 대학 선배와의 미묘한 관계를 떠올리며 샅굴부위의 통증을 견디고 있다. 통증의 원인을 거슬러올라가던 그녀는 어느 수의사와 함께했던 시간에 다다르게 되는데, 그때 요트가 흔들리기 시작한다.</t>
         </is>
       </c>
     </row>
@@ -781,12 +1024,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022 김승옥문학상 수상작품집</t>
+          <t>고통에 관하여</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>편혜영</t>
+          <t>정보라</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;고통에 관하여&gt; 
+“생각의 파도에 휩쓸리게 되는 매혹적인 소설!”
+부커상 최종 후보, 정보라 4년 만의 신작 장편소설
+『저주토끼』로 부커상 최종 후보에 오르며 국내를 넘어 전 세계 독자들에게 충격을 안겨준 작가 정보라의 신작이 다산책방에서 출간된다. 『고통에 관하여』는 붉은 칼 이후 4년 만에 선보이는 장편소설로, 정보라 특유의 치밀하고 치열한 설정과 서늘하게 파고드는 문장, 어둡게 번뜩이는 사유가 더욱 돋보인다. 이야기는 고통을 무력화시킨 진통제 ‘NSTRA-14’를 만든 제약회사와, 고통이 인간을 구원에 이르게 한다고 주장하는 종교단체의 갈등에서부터 시작된다. 정보라는 소설이라는 매혹적인 가능성의 도구를 통해, ‘고통’이라는 감각의 뿌리까지 낱낱이 해부하며, 독자들에게 철학적 통찰과 내면을 집요하게 찌르는 이야기의 쾌감을 동시에 선사한다.</t>
         </is>
       </c>
     </row>
@@ -796,12 +1048,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>마음에 없는 소리</t>
+          <t>이끼숲</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>김지연</t>
+          <t>천선란</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;이끼숲&gt; 
+“구하는 이야기를 써야겠다고 생각했다. 내 이야기는 끝내 구하는 이야기가 된다고 생각하면서도, 조금 더 뚜렷하게 구해야겠다고 생각했다”라는 작가의 말처럼, 『이끼숲』은 누군가의 마음을, 살아 숨쉬는 생명을, 모든 것들이 연결된 이 세계를 구하려는 간절한 바람으로 쓰여졌다. 
+세 편의 연작소설은 지상이 멸망한 후 지하 도시로 추방된 인류의 미래를 배경으로, 여섯 명의 친구들이 함께하는 사랑과 우정, 모험을 그려낸다. 지하 도시의 인간은 다음 세대, 즉 다시 지상으로 올라갈 세대를 위해 인류 문명을 지속시키는 중간 다리이자 충실한 일꾼에 불과하지만, 여섯 명의 친구들은 그 안에서도 서로 눈을 맞추고, 포옹하며, 손을 맞잡고 숨이 벅차도록 함께 달린다. 
+첫사랑임을 깨닫자마자 그 상대를 잃고 마는 소년의 아픈 성장을 보여주는 「바다눈」, 누구보다 증오하면서도 동시에 열렬히 사랑하는 쌍둥이 자매에게 보내는 편지글로 이루어진 「우주늪」, 상실의 슬픔과 함께 살아가는 이들을 위한 이야기 「이끼숲」을 통해 천선란의 소설 세계가 지닌 에너지—이야기가 끝나고 다시 발 딛고 선 땅으로 돌아왔을 때, 절망 속에서도 사랑을 잃지 않고 살아가고 싶도록 만드는 힘을 느낄 수 있길 바란다.</t>
         </is>
       </c>
     </row>
@@ -811,12 +1072,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>트렁크</t>
+          <t>새의 선물</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>김려령</t>
+          <t>은희경</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;새의 선물&gt; 우리가 열광하고 아꼈던 그때 그 여자아이와 다시 만나다
+성장소설의 새로운 클래식 『새의 선물』 100쇄 기념 개정판
+★ 제1회 문학동네소설상 수상작 ★ 누적 발행 100쇄 돌파
+★ KBS・한국문학평론가협회 ‘우리 시대의 소설’
+언제나 새로운 질문과 도약으로 오늘날의 한국문학을 이끌어온 작가 은희경의 첫 장편소설이자 제1회 문학동네소설상 수상작. 100쇄 출간을 기념해 장정을 새롭게 하고 문장과 표현을 다듬은 개정판으로 선보인다. 『새의 선물』은 사랑스러운 인물들과 60년대에 대한 디테일한 묘사, 그리고 한국어의 묘미를 일깨우는 풍부하고 정확한 문장으로 그 자체 장편소설의 교본으로 손색없을 뿐 아니라 한국소설을 그전과는 다른 방향으로 돌려놓은 결정적인 한 걸음이었다.
+은희경 작가는 개정판 작업을 위해 초판을 출간한 후 처음으로 이 책을 다시 들여다보게 됐다고 말한다. 1995년에 신춘문예로 등단하고 한동안 청탁이 없자 멀리 지방에 있는 절에 들어가 몇 달간 작업한 끝에 완성한 자신의 첫 책을 말이다. 짧지 않은 시간 동안 작가가 작품에 쏟아부은 에너지와 열기는 27년이 지난 현재의 우리에게 여전히 생생하게 다가온다.</t>
         </is>
       </c>
     </row>
@@ -826,12 +1098,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>고요한 우연</t>
+          <t>달까지 가자</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>김수빈</t>
+          <t>장류진</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;달까지 가자&gt; 월급만으로는 부족해!
+우리에겐 일확천금이 필요하다!
+『일의 기쁨과 슬픔』 장류진의 첫 장편
+직장인 공감백배 하이퍼리얼리즘 소설
+첫 소설집 『일의 기쁨과 슬픔』(창비 2019)으로 평단의 주목과 독자의 환호를 동시에 받은 소설가 장류진이 첫 장편소설 『달까지 가자』를 야심차게 선보인다. “2020년대를 이끌어갈 한국문학의 얼굴”, 문단의 “대형 신인” 등의 찬사를 받은 장류진의 이번 작품은 생생한 인물 묘사와 속도감 있는 전개로 연재 당시(2020~21년 3월 창비 &lt;문학3&gt; 웹진과 ‘스위치’)부터 이삼십대 젊은 독자들의 열띤 호응을 얻었다. 특히 단순한 현실 반영이 아니라 작가적이고 개성적인 현실의 구축을 꿈꾼 ‘하이퍼 리얼리즘’이라 평가받는 장류진의 현실감 넘치는 배경 설정과 대사는 한층 더 구체적이고 섬세해졌다. 작품 속 소소한 소재까지 “다 내 얘기” 같게 그려내는 솜씨가 탁월한 장류진의 이번 작품은 최근 사회적 이슈인 ‘가상화폐’로 눈을 돌려 그 흡인력을 증폭하는데 작금의 사회현실과 세대를 작가 특유의 빼어난 감각으로 클로즈업하되, 결코 읽기에 만만한 세태소설에 그치지 않는다. 대기업에 입사하고도 단칸방을 벗어날 수 없는 ‘흙수저 여성 3인방’의 ‘코인열차 탑승기’는 만성화된 저성장 국면과 세습 자본주의를 단숨에 관통하며 독자들을 이입시키는데, 이 작품을 읽는 동안 독자는 함께 코인열차의 ‘롤러코스터’를 오르내리며 이 주인공들을 응원하게 된다. 동시대, 동세대의 현실을 반영하되 새롭고 신선한 그만의 세계를 확장해가는 작가 장류진의 행보를 인정할 수밖에 없으며 다시 한번 독자들의 열광을 이끌어낼 것으로 믿는다.
+“걱정 마. 우리 저기까지 갈 거잖아.”
+출근길을 응원하는 장류진의 목소리
+『달까지 가자』는 마론제과에서 일하는 세 직장동료 정다해, 강은상, 김지송의 일상과 우정을 그린다. 브랜드실 스낵팀의 다해, 경영지원실 구매팀의 은상 언니, 회계팀의 지송은 각각 경력도 나이도 다르지만, 비슷한 시기에 입사해 함께 오리엔테이션을 받은 것을 계기로 서로를 ‘동기’라고 생각하는 사이다. 잠자는 시간을 제외한 하루 대부분을 회사에서 보내는 그들에게 ‘회사 사람’을 넘어선 끈끈한 마음이 싹트고, 그들은 “기쁜 일도, 슬픈 일도, 웃기는 일도, 화나는 일도, 통쾌한 일도, 기가 막힌 일도”(30면) 함께 나누는 각별한 사이가 된다. 그들이 “금세 친해질 수 있었던 건 암묵적으로 서로가 서로를 같은 부류라고 생각했기 때문이었다.”(103면) 인사평가는 늘 ‘무난’을 넘지 못하고, 열악한 환경의 월세에 살며, 상사에게 받는 스트레스는 고작 달달한 디저트로 해소할 수밖에 없는 그들은 자기 인생을 자기가 오롯이 책임져야 하는 상황이라는 점에서 동질감을 느낀다. 
+그러던 어느날, 다해와 지송은 평소 감정의 동요가 별로 없는 은상 언니에게 주체할 수 없을 만큼 기쁜 일이 생겼음을 직감하고 무슨 일인지를 추궁하다가 은상이 가상화폐의 한 종류인 이더리움에 투자해 큰돈을 벌고 있다는 사실을 알게 된다. 은상은 다해와 지송에게 이더리움 투자를 함께하자고 설득하지만 지송은 단번에 거절하고, ‘우리 같은 애들’한테는 이 방법밖에 남지 않았다는 은상의 말에 다해는 흔들린다. 다해는 이사 준비를 하다가 마음에 쏙 드는 방을 본 것을 계기로 보증금과 월세가 조금 더 비싼 그곳에 살고 싶다는 생각에 결국 적금을 깨고 가상화폐를 시작하게 된다.  
+똑같은 롤러코스터에 올라탄 다해와 은상은 ‘떡락’과 ‘떡상’의 풍파를 함께 겪지만 그런 와중에도 지송은 여전히 그들을 무시한다. 그러다 셋은 휴가 시즌을 맞아 제주도로 함께 여행을 가고, 그곳에 머무는 동안 이더리움의 그래프는 미친 듯이 치솟아 다해의 가상지갑 속 숫자는 드디어 1억원을 찍게 된다. 떡상의 환희를 맛본 다해와 은상은 다시금 지송을 설득하고 곡절 끝에 드디어 지송도 전재산을 쏟아부어 이더리움에 합류하지만 서울에 돌아온 뒤로 그래프는 바닥을 모르고 떨어져 은상은 죄책감에 시달리기까지 한다. “가상화폐는 손에 쥘 수도 없다. 코드로만 존재한다. 만약 이걸 다시 되팔 수 없다면 나는 허공에 전재산을 날려버리는 꼴이 될 것이다. 제로에서부터 다시 시작해야 한다.”(89면) 과연 이들은 ‘일확천금’의 미래가 있는 ‘달’까지 갈 수 있을까?
+“아무도 장류진을 따라 하지 못할 것이다.”</t>
         </is>
       </c>
     </row>
@@ -841,12 +1129,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>므레모사</t>
+          <t>밤의 여행자들</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>김초엽</t>
+          <t>윤고은</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;밤의 여행자들&gt; “어느 오후의 거대한 쓰나미 아래서, 그곳의 모든 생활들이 갑자기 점. 점. 점. 으로 끊어졌다.” 
+한겨레문학상, 이효석문학상 수상 작가 윤고은이 펼치는 전혀 새로운 상상력
+재난과 여행의 결합 상품을 판매하는 여행사 ‘정글’의 10년차 수석 프로그래머 고요나. 직장에서 밀려날 위기에 처한 그녀가 이번에 향한 곳은 사막의 싱크홀 ‘무이’다. 그녀는 뜻하지 않게 여행지에서 고립되며 엄청난 프로젝트에 휘말리게 되는데……. 기발한 인공 현실의 창안과 신랄한 현실 비틀기에 있어서 타의 추종을 불허해 온 작가 윤고은의 기상천외하고 스펙터클한 재난 사용법</t>
         </is>
       </c>
     </row>
@@ -856,12 +1152,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>달까지 가자</t>
+          <t>종의 기원담</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>장류진</t>
+          <t>김보영</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;종의 기원담&gt; 
+한국 SF 최초 전미도서상 후보에 오른 바로 그 작품!
+23년에 걸쳐 완성한 김보영 문학의 기원, 한국 SF의 기원!
+“이것은 결국 로봇의 이야기다. 사물에 깃든 생명에 바치는 경애다.”
+다시 꺼내 보는 말, 2010년 김보영의 소설집 《멀리 가는 이야기》와 《진화신화》가 처음 나왔을 때, 소설가 박민규는 다음과 같이 썼다. “김보영의 작품들이 언젠가 한국 SF의 ‘종의 기원’이 될 것임을 믿어 의심치 않는다.” 그로부터 10년 뒤, 김보영은 영문 단편집 《On the Origin of Species and Other Stories》으로 한국 SF 작가로서는 최초로 전미 도서상 후보에 올랐다. 《On the Origin of Species...》을 읽은 영미권 독자들은 숱한 찬사와 함께 다음과 같이 부르짖었다. “이 작품을 한국어 원문으로 읽고 싶다!”
+2022년 소설집 《다섯 번째 감각》을 통해 《멀리 가는 이야기》와 《진화신화》에 수록되었던 초기 걸작 10편을 복간했고, 다른 작품들도 모두 새로 출간이 되었지만 독자들은 딱 두 작품을 서점에서 만나볼 수 없었는데, 바로 &lt;종의 기원담&gt;과 &lt;종의 기원담 : 그 후에 있었을지도 모르는 이야기&gt;다. 그리고 긴 기다림 끝에, 두 작품에 이은 신작 중편 &lt;종의 기원담 : 있을 법하지 않은 이야기&gt;를 통해 마침내 23년 만에 ‘종의 기원담’의 이야기가 결말을 보게 되었다. 작가 나이 스물다섯 살에 쓰기 시작한 작품을 마흔여덟에 이르러 기어이 완성한 것이다.
+《돌이킬 수 있는》의 작가 문목하는 김보영을 가리켜 “우주 예찬을 하고 싶어서 인간 세상에 방문한 중단편의 신”이라고 썼다. 《종의 기원담》을 통해 김보영은 우주의 모든 사물에 깃든 생명들을 향한 경애를 쏟아놓는다. 김보영의 소설을 독자들이 사랑할 수밖에 없는 이유 중 하나는 바로 작가의 그 순수한 경애의 마음 때문일지도 모른다. 김보영 SF의 경이로움을 온전히 누리기 위해서는 이 책에 수록된 ‘작가의 말’을 귀담아 들을 필요가 있다.
+“부디 이야기를 자신에게 익숙한 세상에 맞추기 위해, 모든 것을 은유로 보며 눈에 보이는 단어를 다른 단어로 치환하려 애쓰지는 말기 바란다.” _김보영, 작가의 말에서</t>
         </is>
       </c>
     </row>
@@ -871,12 +1180,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>있을 법한 모든 것</t>
+          <t>개정판｜나는 나를 파괴할 권리가 있다</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>구병모</t>
+          <t>김영하</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;개정판｜나는 나를 파괴할 권리가 있다&gt; 충격적 신예의 탄생, 가장 강렬한 자기 출현의 예고!
+『나는 나를 파괴할 권리가 있다』 개정판
+김영하 등단 25주년을 맞이해 시작된 ‘복복서가×김영하 소설’ 시리즈 2차분 3종이 출간되었다. 김영하라는 이름을 문단과 대중에 뚜렷이 각인시킨 첫 장편소설 『나는 나를 파괴할 권리가 있다』, 분단 이후 한국 문학사에 새로운 이정표를 세운 『빛의 제국』, 그리고 비교적 최근작인 소설집 『오직 두 사람』이다.
+‘자살안내인’이라는 기괴한 직업을 가진 화자를 등장시켜 그가 만난 ‘고객’들의 일탈적 삶과 죽음을 이야기하는 『나는 나를 파괴할 권리가 있다』는 한국문학의 감수성을 김영하 출현 이전과 이후로 갈라놓은 문제작이다. 복복서가판은1996년 초판의 모습을 보존한다는 취지에 충실했던 지난 개정판들과 달리, 원숙기에 접어든 작가가 세밀하게 다듬은 마지막 결정판이 될 것으로 보인다.</t>
         </is>
       </c>
     </row>
@@ -886,12 +1204,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>절연</t>
+          <t>오버 더 초이스 세트(전2권)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>정세랑</t>
+          <t>이영도</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;오버 더 초이스 세트(전2권)&gt; 『드래곤 라자』, 『눈물을 마시는 새』 등 한국, 일본, 대만, 중국에서 200만 부 이상의 판매고를 올린 대표적인 판타지 작가 이영도의 10년 만의 신작 장편소설 『오버 더 초이스』를 필두로 한 전자책 세트가 황금가지에서 출간되었다. 
+같은 세계관을 공유하는 『오버 더 초이스』와 『오버 더 호라이즌』이 포함되었으며, 『오버 더 호라이즌』의 경우 기존 판본의 수록 작품에 이영도 작가의 판타지 단편소설인 「에소릴의드래곤」과 「샹파이의 광부들」이 추가되었다. 
+다양한 특성을 가진 종족이 어우러져 평화롭게 사는 소도시를 배경으로 한 시리즈로서, 특히 한 아이의 비극적 죽음에서 시작되는 『오버 더 초이스』는 죽음과 부활, 종말이라는 다소 무거운 주제를 시종일관 유쾌한 서술로 풀어내면서도 강렬한 주제의식을 담아낸다. 
+-세트 구성 도서: 
+오버 더 초이스
+오버 더 호라이즌(신판)</t>
         </is>
       </c>
     </row>
@@ -901,12 +1230,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>오버 더 초이스 세트(전2권)</t>
+          <t>내가 되는 꿈</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>이영도</t>
+          <t>최진영</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;내가 되는 꿈&gt; 당대 한국 문학의 가장 현대적이면서도 첨예한 작가들과 함께하는
+&lt;현대문학 핀 시리즈&gt; 소설선 서른세 번째 책 출간!
+진정한 나를 찾아가는 길, 내가 되는 꿈
+2006년 등단 이후 &lt;한겨례문학상&gt; &lt;신동엽문학상&gt;을 수상하며 독보적인 존재감을 드러내고 있는 최진영은 지금까지 여덟 권의 장편소설과 두 권의 소설집을 발표하며 섬세한 감수성과 거침없는 서사, 빛나는 문장으로 한국 문단의 중요한 위치를 차지하고 있다. 상실을 경험한 여성, 학대 가정에서 자라난 소녀, 비정규직 청년 등 시대적 어두운 현실을 직시하길 주저하지 않던 그는 신작 장편 『내가 되는 꿈』을 통해 내면에 묻어두고 외면했던 자신의 상처의 근원들과 조우하는 이야기를 선보인다. 어린 시절을 지나 지금에 이르기까지 목도하고 경험한 후회로 점철된 ‘어른’들의 삶을 되짚어보며, 그저 어른이 아닌, 진정한 내가 되기 위해 애쓰는 주인공의 이야기를 가슴 아프게 펼쳐놓는다.  
+어린 시절 부모와 떨어져 외가에서 성장한 주인공 태희는 자신을 키워주던 외할머니가 노환으로 죽음을 맞게 되자 외가에서 살던 시절을 떠올린다. 자신의 생일조차 기억해주지 못하던 엄마, 연락도 없던 아빠, 모욕감의 뜻을 알려준 초등학교 친구 순지, 폭언과 성추행을 일삼던 담임, 그리고 자기 방에 얹혀산다며 분풀이를 하던 이모와의 다툼까지…….
+그리고 자신 앞으로 배달된 한 통의 편지를 기억해낸다. 잘못된 주소였으나 수신인과 이름이 같다는 이유로 어린 태희의 손에 쥐어졌던 편지였다. 홀로 남겨진 듯한 슬픔에 방황하던 태희는, 잘못 배달된 편지 쓴 이가 그랬던 것처럼 진실을 감춘 채 멀어져 가는 모든 관계를 원망하는 편지를 쓰고 그것을 우체통에 넣어버린다. 그리고 그 편지는 놀랍게도 성인이 된 그녀의 자취방에 도착하게 된다.
+유년을 지나 어른이 되기까지 삶 속에 새겨진 상처를 외면한 채 살아가다 또다시 어긋나는 관계 속에서 괴로워하는, 펼쳐보지 않으면 화해할 수 없는 과거의 나를 비롯한 모든 관계를 다시 들여다보기 시작하는 태희의 내면을 섬세한 통찰력으로 그려낸 소설이다.
+소설을 읽던 도중 나는 오랫동안 외면하고 있던 내 생의 한 장면을 돌이켜보았다. 용기라고 하긴 멋쩍으니 주인공의 생명력에 기운을 얻어서, 관계에 대한 문제였고 문장에서처럼 문제가 사람에 대한 것인지라 답이 없을 거라 생각했다. 한데 너무 간경하고 그렇기에 더 명료한 답이 나왔다. 글 속의 그처럼, 라일락은 찾지 못하고 그저 향기 묻은 바람을 쫓았던 것인 듯 나는 사람이 아닌 감정의 엮임에 대해 사색하기를 회피했던 듯하다. 줄이 엉킨 목걸이처럼 던져두었던 질문을 이 나이 어린 주인공의 손에 이끌리듯 응시하게 될 줄이야. 투명한 문장이 의식 속에 소리 없이 스며든다. 이래서 이 글이 무섭다.
+-전아리(소설가) 
+</t>
         </is>
       </c>
     </row>
@@ -916,12 +1260,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>이 방에서 1년 버티면 1억</t>
+          <t>아몬드</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>경민선</t>
+          <t>손원평</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;아몬드&gt; * 전 세계 30개국 출간
+* 국내 100만 부 판매 베스트셀러
+* 아시아권 최초, 일본 서점대상 1위 수상
+* 美 아마존 베스트북 선정
+* 특별부록, 단편 외전 수록
+인간을 구성하는 두 가지 위대한 키워드, ‘감정’ 그리고 ‘사랑’
+감정을 느끼지 못하는 독특한 소년의 특별하고 사랑스러운 성장 이야기
+청소년, 부모, 성인 독자를 아우르는
+100만 부 베스트셀러, 올타임 스테디셀러 『아몬드』의 귀환!
+2017년 처음 출간된 이래 국내 종이책 기준 100만 부 판매를 기록한 베스트셀러이자 스테디 셀러 『아몬드』가 절판기간을 거쳐 재출간된다. 강렬하고 새로운 2종의 표지로 청소년과 성인 독자에게 새롭게 다가가며, 단편 외전이 함께 수록돼 상상력과 읽는 재미를 배가시킨다.
+『아몬드』는 ‘감정을 느끼지 못하는 소년’ 윤재가 세상에 걸음을 내딛는 이야기로, 청소년부터 성인에 이르기까지 전연령대 독자의 꾸준한 사랑을 받아왔다. 이미 30여 개국에 번역수출돼 세계시장을 매료시킨 이 책은 어느새 K문학이라 일컬어지는 한국 문학의 명실상부한 성취를 증명한다. 청소년이 직접 심사위원으로 참여한 창비 청소년 문학상, 일본 서점인들이 뽑은 일본 서점 대상 수상작이며 2020년 아마존 베스트 북에 선정됐다.</t>
         </is>
       </c>
     </row>
@@ -931,12 +1291,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>개정판｜나는 나를 파괴할 권리가 있다</t>
+          <t>푸틴을 죽이는 완벽한 방법</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>김영하</t>
+          <t>김진명</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;푸틴을 죽이는 완벽한 방법&gt; 
+우크라이나 키이우 북쪽의 도시 부차. 미하일은 생일을 맞아 가족과 저녁 식사를 하던 중 갑자기 나타난 러시아군에 의해 칼에 찔려 의식을 잃고, 아내와 딸은 끔찍한 일을 당한 후 목숨을 잃는다. 미하일은 러시아군이 시체를 파묻어놓은 구덩이들을 돌아다니며 아내와 딸의 시신을 찾아 헤매지만, 결국 찾지 못하고 자살을 시도한다. 그마저도 실패하자 그는 어느 날 마을에서 자취를 감춰버린다.
+러시아의 핵 공격에 대비해 만들어진 극비 오퍼레이션 ‘네버어게인’. 미국 대통령이 이끄는 이 작전 팀의 일원인 스토니는 러시아인 여성 구호 활동가가 납치되었다는 사실을 알게 된다. 푸틴과의 대결에 온 신경을 쏟고 있던 바이든은 러시아 여성을 미국이 구출한다는 것의 정치적 효과를 노려 구출 명령을 내린다. 스토니는 작전에 도움을 줄 사람을 한 명 떠올린다. 미국 해군사관학교 시절 동기 케빈 한이다. 한국계 미국인으로 에티오피아 아둘랄라에서 주민들을 도우며 살고 있던 케빈 한은 기상천외한 계책으로 스토니를 돕고, 스토니의 보고를 받은 ‘네버어게인’은 케빈 한을 영입한다.
+부차에서 사라졌던 미하일은 의외에 곳에서 다시 등장한다. 가족을 두고 혼자 살아남는 비극을 겪은 그는 한시바삐 죽어 가족들 곁으로 가고자 바흐무트 공방전에서 목숨을 내놓고 싸운다. 하지만 죽기는커녕 전쟁영웅이 되어버린 그는 연이은 전투 끝에 세 발의 총상을 입고 통합병원으로 강제 후송된다. 몸과 마음의 고통을 이기지 못한 그는 병원에 숨겨져있는 치료용 마약을 훔치려 하나 번번이 실패한다. 그때 그의 눈앞에 한 환자가 나타나 마약 훔치는 것을 돕는다. 그는 바로 케빈 한이다. 두 사람은 그 뒤로도 대화를 나누며 우정을 쌓는다. 케빈은 미하일에게 전쟁 통에 사리사욕을 챙기는 친러 무기 암거래상이 갖고 있는 전설의 다이아몬드를 훔쳐 그 돈으로 우크라이나 난민들을 돕자고 제안한다. 그들은 작전을 위해 우크라이나인 범죄자들을 모으기 시작한다.
+한편 러시아 대통령 푸틴은 지지부진하게 이어지는 전쟁 속에 서방 국가들을 상대로 내건 그 어떤 휴전 조건도 받아들여지지 않자 고뇌하기 시작한다. 이대로 물러나며 휴전을 한다면 성난 러시아 국민은 겁쟁이에게 완벽히 속았다고 생각할 테고, 자신의 권력도 종말을 맞을 것이다. 푸틴은 전쟁에 실패한 지도자들이 맞는 비참한 최후를 떠올리며 절치부심한다.
+푸틴은 비밀리에 만난 시진핑이 휴전을 종용하던 겉모습과 달리 은밀히 핵을 쓰도록 부추기는 것을 듣고 마음이 동하기 시작한다. 실은 미국과 적대 관계에 있는 중국 입장에서는 러시아가 핵을 써 미국의 월등한 재래식 전력을 무력화시킬 방법이 필요하다 판단한 것이었다. 그러나 푸틴은 상황을 타개하기 위해서 어떤 수단이든 가리지 않아야겠다고 결심한다.
+미국 잠수함사령부에서는 다량의 핵탄두를 탑재한 전략핵잠수함 로드아일랜드를 흑해에 잠항시킨다. 이 작전의 핵심은 러시아 해군의 앞마당인 흑해에 침투한 로드아일랜드의 사진을 찍어 공개하는 것만으로 응징 효과를 주는 것이었다. 그러나 로드아일랜드는 러시아 측으로부터 추적을 받던 중 암초와 충돌하고야 마는데…….</t>
         </is>
       </c>
     </row>
@@ -946,12 +1318,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>당신에게 가고 있어</t>
+          <t>개정판 | 태백산맥 1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>김보영</t>
+          <t>조정래</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;개정판 | 태백산맥 1&gt; “20세기 한국인에게 가장 큰 영향을 미친 소설”
+30여 년 동안 우리 사회 각계각층의 독자들에게
+‘내 인생의 책’으로 손꼽히며 감동을 전해온 대하소설 『태백산맥』
+작가 등단 50주년 기념 개정판 출간
+『태백산맥』은 한반도가 해방과 분단을 동시에 맞아 남한의 단독정부가 수립되고, 4·3항쟁과 여순사건이 일어난 1948년 10월부터 6·25전쟁이 끝나고 분단이 고착화된 1953년 10월까지를 시간적 배경으로 한다. ‘민족사의 매몰시대’, ‘현대사의 실종시대’라 불리는 역사에 정면으로 부딪쳐 80년대 최대의 문제작이 되었다.
+1983년 《현대문학》에 제1부가 연재되었고 1987년부터 제2~4부가 《한국문학》에 연재되었다. 1986년 제1부 [한의 모닥불] 출간을 시작으로 1989년 제4부 [전쟁과 분단]이 출간됨으로써 16,500매에 이르는 전10권이 완간되었다. 2009년 200쇄를 돌파했으며(1권 기준), 2020년 현재 860만 부 이상 판매되었고, 전10권이 모두 150쇄 이상 제작됨으로써 작품의 감동이 현재진행형임을 확인시켜 주었다.
+사회 각계각층의 주목을 받아온 『태백산맥』은 6·25전쟁의 비극성을 우리 민족 내부의 모순을 통해 적나라하게 표출하며 이념의 금기 지대에 깊숙이 파고들었다는 이유로 논란의 중심에 서기도 하였다. 그러나 이념 대립으로 인한 민족 분단의 아픔을 문학으로 승화시킴으로써 한국문학사의 독보적인 위치에 오르게 되었다.
+프랑스와 일본에서 번역 출간되었고, 영화, 만화, 뮤지컬 등으로 만들어졌으며, 2016년에는 청소년들의 눈높이에 맞춘 글과 삽화가 수록된 『태백산맥 청소년판』이 출간되기도 하였다. 소설의 배경인 전라남도 보성군에서는 2008년 11월 ‘태백산맥문학관’을 개관해 소설의 감동을 독자들이 직접 체험할 수 있는 기회를 제공하고 있다.</t>
         </is>
       </c>
     </row>
@@ -961,12 +1346,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>그 많던 싱아는 누가 다 먹었을까</t>
+          <t>고독사 워크숍</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>박완서</t>
+          <t>박지영</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;고독사 워크숍&gt; ☑ 오늘부터 고독사를 시작하시겠습니까?
+시시하고 성실한 고독사 훈련이 시작된다
+함께 고독할 명랑한 워크숍이 펼쳐진다</t>
         </is>
       </c>
     </row>
@@ -976,12 +1369,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>우리가 겨울을 지나온 방식</t>
+          <t>당신에게 가고 있어</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>문미순</t>
+          <t>김보영</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;당신에게 가고 있어&gt; 
+출간 전 영화화 계약!
+김보영의 Stellar Odyssey Trilogy
+우주에서 펼쳐지는 낭만적 경이로움
+《당신에게 가고 있어》
+사랑하는 남자를 지구에 두고 알파 센타우리에 다녀올 수밖에 없었던 여자가 쓴 편지 모음이다. 가족들이 이민을 가면서 따라갔다가 돌아오기로 한 것이다. 그녀는 지질탐사 연구선에 타서 지구로 돌아오고자 한다. 하지만 연구선은 운석에 맞아 사고가 나고 그녀가 돌아올 시간은 11년으로 늘어나고 만다. 하지만 여러 사고 끝에 간신히 돌아온 지구는 엉망진창이었다. 그녀는 지구를 떠나갔다가 되돌아오곤 하는 생활을 반복한다. 지구는 그럴 때마다 더 엉망이 되어가고 있다. 여자를 기다리고 있던 남자와 남자에게 가고 있던 여자 사이에서 벌어진 일들이 이 소설을 통해서 정교한 퍼즐처럼 맞춰진다. 그리고 그 끝에서는...</t>
         </is>
       </c>
     </row>
@@ -991,12 +1395,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>고구려 1권</t>
+          <t>한 스푼의 시간</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>김진명</t>
+          <t>구병모</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;한 스푼의 시간&gt; 오늘의작가상, 황순원신진문학상 수상작가 구병모의 신작 장편소설
+얼룩, 세탁, 표백, 건조가 반복되는 삶의 비밀을 배워나가는 은결의 이야기
+예리하고 세심한 시선, 다양한 경계를 넘나드는 시도와 이야기로 많은 독자들의 사랑을 받고 있는 구병모 작가의 신작 장편소설 《한 스푼의 시간》이 예담에서 출간되었다. 데뷔작 《위저드 베이커리》에서 《아가미》, 《파과》 등에 이르기까지 구병모 작가는 도발적이고 환상적인 상상력, 신선하면서도 생생한 캐릭터들, 발군의 문장 그리고 위로와 치유의 서사로 한국 문학의 새로운 축을 담당해왔으며 2015년 소설집 《그것이 나만은 아니기를》로 민음사 오늘의문학상, 황순원신진문학상을 수상했다.
+구병모 작가가 《파과》 이후 3년 만에 선보이는 장편소설 《한 스푼의 시간》은 세탁소에 살게 된 ‘소년 은결’이 유한한 인간의 시간 속 숨겨진 삶의 비밀과 신비함을 조금씩 배워가는 과정을 섬세하면서도 차분하게 그려내면서 새로운 구병모의 세계를 선보인다.</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1419,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>안녕 주정뱅이</t>
+          <t>나인</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>권여선</t>
+          <t>천선란</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;나인&gt; “어느 날, 식물들의 목소리가 들리기 시작했다.”
+독보적 상상력, 폭발하는 스토리텔링!
+『천 개의 파랑』 천선란 신작 장편소설
+천선란 소설이 사람들에게 꼭 가닿기만을 바라고 있다. ― 정세랑 소설가
+재미와 감동을 전 세대에 전하는 소설Y 시리즈가 새로운 K-영어덜트의 세계를 펼쳐 보인다. 한국형 영어덜트 소설의 지평을 넓히는 이번 시리즈의 두 번째 권으로 제4회 한국과학문학상 대상을 수상한 천선란 작가의 신작 장편소설 『나인』이 출간되었다. 
+이 소설은 평범한 고등학생 ‘나인’이 어느 날 식물들의 목소리를 듣기 시작하면서 펼쳐지는 이야기다. 숲의 속삭임을 따라 우연히 2년 전 실종 사건의 전말을 알게 된 나인은 친구 미래, 현재, 승택과 함께 숨겨진 진실을 파헤치기 시작한다. 사소한 것도 지나치지 않는 나인과 친구들의 모습은 우리가 어떤 목소리에 귀 기울여야 하는지를 깊이 성찰하게 한다. 흡인력 있는 스토리 전개와 참신한 상상력, 속도감 넘치는 서스펜스를 모두 갖춘 이 특별한 소설은 천선란 작가의 찬란한 성취로 기억될 작품이다. 어른들의 목소리에 굴하지 않고 진실을 찾는 나인의 여정을 따라가다 보면, 어느새 용기라는 풀잎이 쑥 자라나 있는 것을 느낄 수 있다. 
+‘이 숲에 사람이 묻혀 있어. 
+죽은 자에게 진실을 물을 수 없다면 산 자를 찾아내 물으면 된다.’
+열일곱 살 유나인은 이모와 단둘이 지구에서 살아가는 평범한 고등학생이다. 그런데 어느 날부터 나인에게 식물의 목소리가 들리기 시작하고, 손톱 사이에서 새싹이 돋아난다. 나인에게 ‘승택’이라는 소년이 다가오더니 ‘너와 나는 같은 존재’라고 말한다. 나인의 혼란스러움은 더욱 커진다. 이모가 그제야 털어놓은 비밀은, 나인이 ‘아홉 번째 새싹’이며 특별한 능력이 있는 존재라는 것. 
+“……어제 나한테 말 걸었던 거.”
+“…….”
+“너 맞지?”</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1451,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>개정판 | 엘리베이터에 낀 그 남자는 어떻게 되었나</t>
+          <t>안녕 주정뱅이</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>김영하</t>
+          <t>권여선</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;안녕 주정뱅이&gt; 인생이 던지는 잔혹한 농담, 
+그 비극을 견디는 자들이 그리는 아름다운 생의 무늬
+2007년 제15회 오영수문학상, 2008년 제32회 이상문학상, 2012년 제44회 한국일보문학상, 그리고 2014년 “작품을 만들어내는 솜씨가 장인의 경지”에 올랐다는 상찬을 받으며 장편소설 『토우의 집』으로 제18회 동리문학상을 수상한 소설가 권여선이 다섯번째 소설집 『안녕 주정뱅이』를 선보인다. 2013년 여름부터 2015년 겨울까지 바지런히 발표한 일곱편의 단편소설을 묶었다. 
+한국문학의 특출한 성취로 굳건히 자리매김한 권여선의 이번 소설집은 이해되지 않는, 그러면서도 쉽사리 잊히지 않는 지난 삶의 불가해한 장면을 잡아채는 선명하고도 서늘한 문장으로 삶의 비의를 그려낸다. 인생이 던지는 지독한 농담이 인간을 벼랑 끝까지 밀어뜨릴 때, 인간은 어떠한 방식으로 그 불행을 견뎌낼 수 있을까. 미세한 균열로도 생은 완전히 부서질 수 있다는 것을 보여주는 데 탁월한 감각을 발휘해온 권여선은 그럼에도 그 비극을 견뎌내는 자들의 숭고함을 가슴 먹먹하게 그려낸다.</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1475,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>뜨거운 피</t>
+          <t>체공녀 강주룡</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>김언수</t>
+          <t>박서련</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;체공녀 강주룡&gt; 제23회 한겨레문학상 수상작
+“앞으로 너는 네가 바라는 대로 살았으면 좋겠다.”
+싸우고 고뇌하고, 사랑하며 자기 삶을 스스로 결정하는
+왜곡되지 않은 여성 영웅, 으뜸 고운 강주룡의 삶과 사랑
+박민규의 《삼미 슈퍼스타즈의 마지막 팬클럽》, 심윤경의 《나의 아름다운 정원》, 윤고은의 《무중력증후군》, 최진영의 《당신 옆을 스쳐간 그 소녀의 이름은》, 장강명의 《표백》, 강화길의 《다른 사람》 등 꾸준히 독자들의 관심과 사랑을 받아온 한겨레문학상의 스물세 번째 수상작 《체공녀 강주룡》이 출간되었다. 《체공녀 강주룡》은 1931년 평양 평원 고무 공장 파업을 주동하며 을밀대 지붕에 올라 우리나라 최초로 ‘고공 농성’을 벌였던 여성 노동자 강주룡의 일생을 그린 전기 소설이다. 제23회 한겨레문학상 심사 당시 “거침없이 나아가되 쓸데없이 비장하지 않고, 비극적으로 삶을 마감했으나 자기 연민이나 감상에 젖지 않는 이 인물을 통해 우리는 전혀 다른 여성 서사를 만난다”(평론가 서영인), “이렇게 근사한 소설, 참으로 오랜만이다”(소설가 한창훈), “놀라운 생동감으로 역사의 책갈피 깊숙이 숨어 있는 아름다운 인간을 바로 지금 여기에서 살아 숨 쉬게 만든다”(작가 정여울) 등 심사위원들의 강렬한 지지를 받으며 205편의 쟁쟁한 경쟁작들을 제치고 수상작으로 결정되었다. 또한, 작가가 구사하는 간도 사투리의 말맛은 ‘새터민일 것이다’, ‘나이 지긋한 기성 작가일 것이다’라는 추측과 함께 심사위원들의 감탄을 불러일으켰다.
+수상자 박서련은 2015년 단편 〈미키마우스 클럽〉으로 《실천문학》 신인상을 받으며 등단한 신인으로, 《체공녀 강주룡》은 그가 처음 완성한 장편이자 첫 책이다. 작가는 새롭고도 단단한 상상의 힘으로 미처 제대로 주목받지 못했던 역사 속 인물 ‘강주룡’을 지금의 우리 곁으로 소환한다. 간도와 평양을 오가는 광활한 상상력에 ‘강주룡’이라는 매혹적인 인물을 불러낸 이 강렬한 이야기는 지금의 시대를 사는 우리에게 깊은 울림으로 다가올 것이다.</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1501,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>고독사 워크숍</t>
+          <t>잠 못 드는 밤의 궁궐 기담</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>박지영</t>
+          <t>현찬양</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;잠 못 드는 밤의 궁궐 기담&gt; “궁궐에는 왜 이리 금기가 많습니까?”
+한 가지 약조를 해주셔야 합니다. 우리 궁녀끼리는 비밀 이야기나 괴이한 이야기를 하고 나면 반드시 귀를 씻는답니다. 귀 씻은 물을 대나무밭에 부으면 비밀을 지키겠다는 뜻으로 받습니다. 오늘 이 이야기가 사람들의 입을 돌아다니지 않고, 오로지 대나무숲만 헤맬 수 있도록 해주신다면 이야기를 시작하겠습니다. 약조해주실 수 있겠습니까? (본문 중에서)
+『잠 못 드는 밤의 궁궐 기담』은 제4회 엘릭시르 미스터리 대상 단편 부문 수상작 「도깨비집터」(수상 당시 제목은「잠 못 드는 밤의 궁궐 기담」)를 비롯하여 총 여섯 편의 작품이 실린 연작 단편집이다. 아직 고려의 기운이 채 가시지 않은 조선 초, 경복궁 내명부에서 일하게 되는 궁녀에게만 전해지는 ‘규칙’이 있다. 기본적으로는 신참을 위한 궁녀 생활 규칙을 담고 있지만, 실제로는 하지 말아야 할 ‘금기’ 조항들이다. 이런 조례가 있을 만큼 궁궐의 밤은 음산하고, 궁녀들은 밤마다 모여 자신이 겪거나 들은 괴담을 이야기한다. 그리고 괴담은 다시 괴이한 일을 부른다. 궁궐에서는 무슨 일이 벌어졌고, 벌어지려는 것일까?
+어릴 적 남부럽지 않게 살았지만 오빠가 알 수 없는 병에 걸린 뒤로 집이 몰락하고 가족도 모두 잃으며 궁녀로 들어오게 된 세답방 나인 백희, 고려 때부터 궁녀로 살아 왕실 생활과 예절에 밝은 지밀나인 노아. 『잠 못 드는 밤의 궁궐 기담』에는 두 나인을 주인공으로 경복궁 내에서 벌어지는 기이한 일들을 담고 있다. 백희의 과거사로 시작한 괴담은 궁녀 한 명이 갑자기 사라지며 점점 현실감을 띠기 시작하는데, 전부 괴력난신을 인정하지 않고서는 도무지 설명할 수 없는 일들이다. 그리고 그것은 전부 ‘궁녀 규칙 조례’에 담긴 ‘금기’와 연관이 있다. 대체, 이곳에는 왜 이렇게 금기가 많을까. 괴력난신의 공간에서 벌어지는 괴이한 사건들, 그리고 잠 못 드는 궁녀들의 아찔한 이야기에 담긴 수수께끼는 점점 미궁으로 빠져든다.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1525,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>푸틴을 죽이는 완벽한 방법</t>
+          <t>개정판 | 엘리베이터에 낀 그 남자는 어떻게 되었나</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>김진명</t>
+          <t>김영하</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;개정판 | 엘리베이터에 낀 그 남자는 어떻게 되었나&gt; 작가 김영하의 기원을 찾아서
+복복서가에서는 2020년 김영하 등단 25주년을 맞아, '복복서가x김영하_소설'이라는 이름으로 장편소설과 소설집을 새로이 출간한다. 『검은 꽃』, 『엘리베이터에 낀 그 남자는 어떻게 되었나』, 『아랑은 왜』 세 권을 먼저 선보인 후, 2022년까지 총 열두 권을 낼 계획이다. 『엘리베이터에 낀 그 남자는 어떻게 되었나』는 김영하의 두번째 소설집으로, 1999년 문학과지성사에서 초판이 출간된 후 지금까지 많은 사랑을 받고 있다.
+세기말이었던 1999년, 등단 5년차의 신인 작가 김영하는 문학과지성사에서 『엘리베이터에 낀 그 남자는 어떻게 되었나』라는 만화 제목을 연상케 하는 소설집을 발표한다. 첫 소설집 『호출』에서 이미 기발하고 전복적인 상상력으로 문단을 놀라게 했던 김영하는 이 두번째 소설집에서 유려한 서사적 테크닉으로 기왕의 작가적 재능을 더욱 숙성시켜 세상에 내놓았다. “읽는 이의 마음을 맑고 정결한 물기로 적시게”(오정희) 한다는 평을 받은 「당신의 나무」부터 카프카적인 유머로 쉴새없이 몰아치는 표제작, 그리고 사회의 밑바닥에서 거칠게 살아가는 젊은이들의 삶을 날것 그대로 담아낸 「비상구」에 이르기까지, 다양한 상황에 처한 독특한 캐릭터들을 통해 만개한 작가적 역량을 선보인다. 이 소설집에 실린 작품들은 이후 한국 문학의 정서적 기조와 방향을 바꾸어놓았다. 흡혈귀, 투명인간, 삐끼처럼 기존의 문학장 안에서 거의 다뤄지지 않았던 캐릭터들을 사용하여 현대인의 고독과 소통의 불가능성, 희망 없는 삶을 묘파해냈다. 평론가 백지연은 김영하가 다루는 이야기의 폭넓은 스펙트럼과 그 위험한 새로움에 주목하며 이렇게 적었다. “김영하가 앞으로 써낼 이야기는 무궁무진하며, 우리는 문학의 가치 의미를 뒤집는 더욱 불온한 형태들을 만나게 될지 모른다.” 
+탐험가로서의 작가 김영하,
+장르를 넘나드는 파격의 향연
+『엘리베이터에 낀 그 남자는 어떻게 되었나』의 작품들은 파격적이다. 비극과 희극 어떤 것도 추구하지 않는 결말, ‘고상함’과는 거리가 먼 대담한 묘사. 지금 읽어도 새롭지만, 소설들이 발표된 약 20년 전에는 갑자기 튀어나온 당돌한 신인작가의 무모한 모험처럼 보이기도 했다.  신예 작가 김영하의 이러한 도전이 단순한 도전에 머물지 않은 것은 본격문학 바깥의 다양한 존재들을 끌어들여 환상문학적 설정으로 다룰 때조차도 현대인의 고독과 단절, 소통 부재, 이해의 불가능성 같은 묵직한 주제들을 특유한 단단한 문체로 담아내는 데 성공했기 때문이었다. 김영하에게 포착된 일상의 단면들은 흥미로운 상상력의 이야기로 탈바꿈되어 독자들에게 던져진다.
+90년대에 한국문학의 뉴웨이브를 대표하던 김영하는 20년이 흘러 한국문학을 대표하는 작가가 되었다. 20년이 흐른 지금, 이 소설집을 읽는 것은 김영하라는 작가의 기원을 찾아가는 흥미로운 탐험이 될 것이다.</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1552,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>아무도 아닌</t>
+          <t>서유기 1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>황정은</t>
+          <t>오승은</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;서유기 1&gt; 『삼국연의』『금병매사화』『수호전』과 함께 중국 4대 기서(奇書) 중의 하나로 꼽히지만 다른 작품들에 비해 제대로 된 완역본을 만나기 힘들었던『서유기』가 7월까지 총 10권으로 완간된다.『서유기』를 제대로 읽는다는 것은 유불도 3교에 중국 고대 신화와 전설이 모두 녹아 있는 동양적 판타지의 정수와 만나는 일이다. 캐릭터 중심의 아동물에서 벗어나, 명나라 당시의 암울한 정치와 도교를 우회적으로 조롱하는 풍자문학의 걸작으로 다시 만나는『서유기』그 첫회분.</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1573,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>나목</t>
+          <t>조선왕조 사랑사건</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>박완서</t>
+          <t>오윤희</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;조선왕조 사랑사건&gt; "중전이 보고 싶다."
+역사의 흐름 속에 감춰져 있던 사랑사(史)를 읽다! 
+'킬방원'이라 불릴 만큼 피도 눈물도 없던 태종 이방원이 평생 마음에 담아둔 연정,
+패륜과 폭정으로 왕위에서 쫓겨난 연산군이 죽음 앞에서 그리워했던 여인,
+일생을 고독과 광기의 줄타기 속에 살았던 사도세자에게 찾아온 단 한 명의 위로,
+그리고 세종의 왕실을 뒤흔든 세자빈과 궁녀의 스캔들까지! 
+&lt;조선왕조 사랑사건&gt;은 정치사 중심으로 조선 왕조를 알던 이들에게 역사책 이면에 담긴 아주 사적인 부분을 엿보게 한다. 그러면서도 실록을 기반으로 이야기를 엮어 수백 년 전 왕실에 실재했었을 감정들이 진실성 있게 다가온다. 기록으로만 접해온 조선 인물들을 소설 형식으로 재구성한 사랑 이야기로 다시 만남으로써, 조금 더 입체적이고 인간적으로 재해석해볼 수 있다.</t>
         </is>
       </c>
     </row>
